--- a/Data/O3 development.xlsx
+++ b/Data/O3 development.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/z5293104/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Bayesian_PV\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC1812D-BBF4-D041-BBA2-B60CFA55E817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87914F7C-DB9B-4A32-8E2F-2BC2C030F682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="-120" windowWidth="37065" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOE" sheetId="1" r:id="rId1"/>
@@ -44,21 +44,6 @@
     <t>Date</t>
   </si>
   <si>
-    <r>
-      <t>Ozone AlO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
     <t>Aims</t>
   </si>
   <si>
@@ -69,22 +54,6 @@
   </si>
   <si>
     <t>Cycle</t>
-  </si>
-  <si>
-    <r>
-      <t>Temperature</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（℃）</t>
-    </r>
   </si>
   <si>
     <t>Ar
@@ -274,16 +243,47 @@
   <si>
     <t>碎片</t>
   </si>
+  <si>
+    <r>
+      <t>Ozone AlO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Temperature</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（℃）</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -295,46 +295,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -342,8 +302,55 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="598">
+  <fills count="599">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3924,6 +3931,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF5B9BD5"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4298,7 +4311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="870">
+  <cellXfs count="872">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -5126,49 +5139,10 @@
     <xf numFmtId="0" fontId="1" fillId="594" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="595" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="596" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="597" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="8" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="597" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="597" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="597" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="597" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="597" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="597" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -5178,11 +5152,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="597" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="597" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="597" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="597" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="597" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="597" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="597" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="598" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="598" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="598" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5499,615 +5514,628 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.625" customWidth="1"/>
+    <col min="18" max="18" width="12.875" customWidth="1"/>
+    <col min="19" max="19" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A1" s="839" t="s">
+    <row r="1" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="852" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="841" t="s">
+      <c r="B1" s="853" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="853" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="841" t="s">
+      <c r="D1" s="854" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="843" t="s">
+      <c r="E1" s="855"/>
+      <c r="F1" s="853" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="844"/>
-      <c r="F1" s="841" t="s">
+      <c r="G1" s="856" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="845" t="s">
+      <c r="H1" s="857" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="857"/>
+      <c r="J1" s="857"/>
+      <c r="K1" s="857"/>
+      <c r="L1" s="857"/>
+      <c r="M1" s="857"/>
+      <c r="N1" s="858"/>
+      <c r="O1" s="859" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="835" t="s">
+      <c r="P1" s="859" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="835"/>
-      <c r="J1" s="835"/>
-      <c r="K1" s="835"/>
-      <c r="L1" s="835"/>
-      <c r="M1" s="835"/>
-      <c r="N1" s="836"/>
-      <c r="O1" s="837" t="s">
+      <c r="Q1" s="857" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="837" t="s">
+      <c r="R1" s="858"/>
+      <c r="S1" s="857" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="835" t="s">
+      <c r="T1" s="858"/>
+    </row>
+    <row r="2" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="860"/>
+      <c r="B2" s="861"/>
+      <c r="C2" s="861"/>
+      <c r="D2" s="862" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="836"/>
-      <c r="S1" s="835" t="s">
+      <c r="E2" s="862" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="836"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="840"/>
-      <c r="B2" s="842"/>
-      <c r="C2" s="842"/>
-      <c r="D2" s="827" t="s">
+      <c r="F2" s="861"/>
+      <c r="G2" s="863"/>
+      <c r="H2" s="864" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="827" t="s">
+      <c r="I2" s="864" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="842"/>
-      <c r="G2" s="846"/>
-      <c r="H2" s="828" t="s">
+      <c r="J2" s="864" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="828" t="s">
+      <c r="K2" s="864" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="828" t="s">
+      <c r="L2" s="864" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="828" t="s">
+      <c r="M2" s="864" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="828" t="s">
+      <c r="N2" s="864" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="828" t="s">
+      <c r="O2" s="865"/>
+      <c r="P2" s="865"/>
+      <c r="Q2" s="864" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="828" t="s">
+      <c r="R2" s="864" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="838"/>
-      <c r="P2" s="838"/>
-      <c r="Q2" s="828" t="s">
+      <c r="S2" s="864" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="864" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="866">
+        <v>20210902</v>
+      </c>
+      <c r="B3" s="862" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="828" t="s">
+      <c r="C3" s="862" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="828" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="828" t="s">
+      <c r="D3" s="862">
+        <v>24</v>
+      </c>
+      <c r="E3" s="862" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="862" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="867">
+        <v>500</v>
+      </c>
+      <c r="H3" s="867">
+        <v>200</v>
+      </c>
+      <c r="I3" s="867">
+        <v>200</v>
+      </c>
+      <c r="J3" s="867">
+        <v>200</v>
+      </c>
+      <c r="K3" s="867">
+        <v>200</v>
+      </c>
+      <c r="L3" s="867">
+        <v>200</v>
+      </c>
+      <c r="M3" s="867">
+        <v>200</v>
+      </c>
+      <c r="N3" s="867" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="868">
+        <v>1500</v>
+      </c>
+      <c r="P3" s="869">
+        <v>4000</v>
+      </c>
+      <c r="Q3" s="870">
+        <v>4.5</v>
+      </c>
+      <c r="R3" s="870">
+        <v>12.5</v>
+      </c>
+      <c r="S3" s="868">
+        <v>6</v>
+      </c>
+      <c r="T3" s="869">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="866">
+        <v>20210903</v>
+      </c>
+      <c r="B4" s="862" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="862" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="66">
-      <c r="A3" s="829">
-        <v>20210902</v>
-      </c>
-      <c r="B3" s="827" t="s">
+      <c r="D4" s="862">
+        <v>24</v>
+      </c>
+      <c r="E4" s="862" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="827" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="827">
+      <c r="F4" s="862">
+        <v>1</v>
+      </c>
+      <c r="G4" s="867">
+        <v>500</v>
+      </c>
+      <c r="H4" s="867">
+        <v>200</v>
+      </c>
+      <c r="I4" s="867">
+        <v>200</v>
+      </c>
+      <c r="J4" s="867">
+        <v>200</v>
+      </c>
+      <c r="K4" s="867">
+        <v>200</v>
+      </c>
+      <c r="L4" s="867">
+        <v>200</v>
+      </c>
+      <c r="M4" s="867">
+        <v>200</v>
+      </c>
+      <c r="N4" s="867" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="870">
+        <v>1700</v>
+      </c>
+      <c r="P4" s="869">
+        <v>4000</v>
+      </c>
+      <c r="Q4" s="869">
+        <v>4.5</v>
+      </c>
+      <c r="R4" s="869">
+        <v>12.5</v>
+      </c>
+      <c r="S4" s="868">
+        <v>6</v>
+      </c>
+      <c r="T4" s="869">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="866">
+        <v>20210907</v>
+      </c>
+      <c r="B5" s="867" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="827" t="s">
+      <c r="C5" s="862" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="867">
         <v>24</v>
       </c>
-      <c r="F3" s="827" t="s">
+      <c r="E5" s="867" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="867" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="867">
+        <v>500</v>
+      </c>
+      <c r="H5" s="867">
+        <v>200</v>
+      </c>
+      <c r="I5" s="867">
+        <v>200</v>
+      </c>
+      <c r="J5" s="867">
+        <v>200</v>
+      </c>
+      <c r="K5" s="867">
+        <v>200</v>
+      </c>
+      <c r="L5" s="867">
+        <v>200</v>
+      </c>
+      <c r="M5" s="867">
+        <v>200</v>
+      </c>
+      <c r="N5" s="867" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="868">
+        <v>1700</v>
+      </c>
+      <c r="P5" s="870">
+        <v>3000</v>
+      </c>
+      <c r="Q5" s="869">
+        <v>4.5</v>
+      </c>
+      <c r="R5" s="869">
+        <v>12.5</v>
+      </c>
+      <c r="S5" s="870">
+        <v>8</v>
+      </c>
+      <c r="T5" s="869">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="866">
+        <v>20210908</v>
+      </c>
+      <c r="B6" s="867" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="862" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="867">
         <v>24</v>
       </c>
-      <c r="G3" s="830">
+      <c r="E6" s="867" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="867" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="867">
         <v>500</v>
       </c>
-      <c r="H3" s="830">
+      <c r="H6" s="867">
         <v>200</v>
       </c>
-      <c r="I3" s="830">
+      <c r="I6" s="867">
         <v>200</v>
       </c>
-      <c r="J3" s="830">
+      <c r="J6" s="867">
         <v>200</v>
       </c>
-      <c r="K3" s="830">
+      <c r="K6" s="867">
         <v>200</v>
       </c>
-      <c r="L3" s="830">
+      <c r="L6" s="867">
         <v>200</v>
       </c>
-      <c r="M3" s="830">
+      <c r="M6" s="867">
         <v>200</v>
       </c>
-      <c r="N3" s="830" t="s">
+      <c r="N6" s="867" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="869">
+        <v>1700</v>
+      </c>
+      <c r="P6" s="869">
+        <v>3000</v>
+      </c>
+      <c r="Q6" s="870">
+        <v>5</v>
+      </c>
+      <c r="R6" s="870">
+        <v>12</v>
+      </c>
+      <c r="S6" s="869">
+        <v>8</v>
+      </c>
+      <c r="T6" s="869">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="866" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="867" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="862" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="867">
         <v>24</v>
       </c>
-      <c r="O3" s="830">
-        <v>1500</v>
-      </c>
-      <c r="P3" s="832">
-        <v>4000</v>
-      </c>
-      <c r="Q3" s="831">
-        <v>4.5</v>
-      </c>
-      <c r="R3" s="831">
-        <v>12.5</v>
-      </c>
-      <c r="S3" s="830">
-        <v>6</v>
-      </c>
-      <c r="T3" s="832">
+      <c r="E7" s="867" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="867">
+        <v>1</v>
+      </c>
+      <c r="G7" s="867">
+        <v>500</v>
+      </c>
+      <c r="H7" s="867">
+        <v>200</v>
+      </c>
+      <c r="I7" s="867">
+        <v>200</v>
+      </c>
+      <c r="J7" s="867">
+        <v>200</v>
+      </c>
+      <c r="K7" s="867">
+        <v>200</v>
+      </c>
+      <c r="L7" s="867">
+        <v>200</v>
+      </c>
+      <c r="M7" s="867">
+        <v>200</v>
+      </c>
+      <c r="N7" s="867" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="870">
+        <v>2500</v>
+      </c>
+      <c r="P7" s="869">
+        <v>3000</v>
+      </c>
+      <c r="Q7" s="868">
+        <v>5</v>
+      </c>
+      <c r="R7" s="868">
+        <v>12</v>
+      </c>
+      <c r="S7" s="869">
+        <v>8</v>
+      </c>
+      <c r="T7" s="869">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="66">
-      <c r="A4" s="829">
-        <v>20210903</v>
-      </c>
-      <c r="B4" s="827" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="827" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="827">
+    <row r="8" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="866">
+        <v>20210909</v>
+      </c>
+      <c r="B8" s="867" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="862" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="867">
         <v>24</v>
       </c>
-      <c r="E4" s="827" t="s">
+      <c r="E8" s="867" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="867" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="867">
+        <v>500</v>
+      </c>
+      <c r="H8" s="867">
+        <v>200</v>
+      </c>
+      <c r="I8" s="867">
+        <v>200</v>
+      </c>
+      <c r="J8" s="867">
+        <v>200</v>
+      </c>
+      <c r="K8" s="867">
+        <v>200</v>
+      </c>
+      <c r="L8" s="867">
+        <v>200</v>
+      </c>
+      <c r="M8" s="867">
+        <v>200</v>
+      </c>
+      <c r="N8" s="867" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="868">
+        <v>2500</v>
+      </c>
+      <c r="P8" s="869">
+        <v>3000</v>
+      </c>
+      <c r="Q8" s="868">
+        <v>5</v>
+      </c>
+      <c r="R8" s="868">
+        <v>12</v>
+      </c>
+      <c r="S8" s="869">
+        <v>8</v>
+      </c>
+      <c r="T8" s="870">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="866">
+        <v>20210910</v>
+      </c>
+      <c r="B9" s="867" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="862" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="867">
         <v>24</v>
       </c>
-      <c r="F4" s="827">
-        <v>1</v>
-      </c>
-      <c r="G4" s="830">
+      <c r="E9" s="867" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="867" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="871">
         <v>500</v>
       </c>
-      <c r="H4" s="830">
+      <c r="H9" s="871">
         <v>200</v>
       </c>
-      <c r="I4" s="830">
+      <c r="I9" s="871">
         <v>200</v>
       </c>
-      <c r="J4" s="830">
+      <c r="J9" s="871">
         <v>200</v>
       </c>
-      <c r="K4" s="830">
+      <c r="K9" s="871">
         <v>200</v>
       </c>
-      <c r="L4" s="830">
+      <c r="L9" s="871">
         <v>200</v>
       </c>
-      <c r="M4" s="830">
+      <c r="M9" s="871">
         <v>200</v>
       </c>
-      <c r="N4" s="830" t="s">
+      <c r="N9" s="871" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="869">
+        <v>2500</v>
+      </c>
+      <c r="P9" s="869">
+        <v>3000</v>
+      </c>
+      <c r="Q9" s="869">
+        <v>5</v>
+      </c>
+      <c r="R9" s="870">
+        <v>8</v>
+      </c>
+      <c r="S9" s="869">
+        <v>8</v>
+      </c>
+      <c r="T9" s="869">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="866" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="867" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="862" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="867">
         <v>24</v>
       </c>
-      <c r="O4" s="831">
-        <v>1700</v>
-      </c>
-      <c r="P4" s="832">
-        <v>4000</v>
-      </c>
-      <c r="Q4" s="832">
-        <v>4.5</v>
-      </c>
-      <c r="R4" s="832">
-        <v>12.5</v>
-      </c>
-      <c r="S4" s="830">
-        <v>6</v>
-      </c>
-      <c r="T4" s="832">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="66">
-      <c r="A5" s="829">
-        <v>20210907</v>
-      </c>
-      <c r="B5" s="830" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="827" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="830">
-        <v>24</v>
-      </c>
-      <c r="E5" s="830" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="830" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="830">
+      <c r="E10" s="867" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="867" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="871">
         <v>500</v>
       </c>
-      <c r="H5" s="830">
+      <c r="H10" s="871">
         <v>200</v>
       </c>
-      <c r="I5" s="830">
+      <c r="I10" s="871">
         <v>200</v>
       </c>
-      <c r="J5" s="830">
+      <c r="J10" s="871">
         <v>200</v>
       </c>
-      <c r="K5" s="830">
+      <c r="K10" s="871">
         <v>200</v>
       </c>
-      <c r="L5" s="830">
+      <c r="L10" s="871">
         <v>200</v>
       </c>
-      <c r="M5" s="830">
+      <c r="M10" s="871">
         <v>200</v>
       </c>
-      <c r="N5" s="830" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="830">
-        <v>1700</v>
-      </c>
-      <c r="P5" s="831">
+      <c r="N10" s="871" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="869">
+        <v>2500</v>
+      </c>
+      <c r="P10" s="869">
         <v>3000</v>
       </c>
-      <c r="Q5" s="832">
-        <v>4.5</v>
-      </c>
-      <c r="R5" s="832">
-        <v>12.5</v>
-      </c>
-      <c r="S5" s="831">
-        <v>8</v>
-      </c>
-      <c r="T5" s="832">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="27">
-      <c r="A6" s="829">
-        <v>20210908</v>
-      </c>
-      <c r="B6" s="830" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="827" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="830">
-        <v>24</v>
-      </c>
-      <c r="E6" s="830" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="830" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="830">
-        <v>500</v>
-      </c>
-      <c r="H6" s="830">
-        <v>200</v>
-      </c>
-      <c r="I6" s="830">
-        <v>200</v>
-      </c>
-      <c r="J6" s="830">
-        <v>200</v>
-      </c>
-      <c r="K6" s="830">
-        <v>200</v>
-      </c>
-      <c r="L6" s="830">
-        <v>200</v>
-      </c>
-      <c r="M6" s="830">
-        <v>200</v>
-      </c>
-      <c r="N6" s="830" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="832">
-        <v>1700</v>
-      </c>
-      <c r="P6" s="832">
-        <v>3000</v>
-      </c>
-      <c r="Q6" s="831">
+      <c r="Q10" s="869">
         <v>5</v>
       </c>
-      <c r="R6" s="831">
-        <v>12</v>
-      </c>
-      <c r="S6" s="832">
-        <v>8</v>
-      </c>
-      <c r="T6" s="832">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="66">
-      <c r="A7" s="829" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="830" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="827" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="830">
-        <v>24</v>
-      </c>
-      <c r="E7" s="830" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="830">
-        <v>1</v>
-      </c>
-      <c r="G7" s="830">
-        <v>500</v>
-      </c>
-      <c r="H7" s="830">
-        <v>200</v>
-      </c>
-      <c r="I7" s="830">
-        <v>200</v>
-      </c>
-      <c r="J7" s="830">
-        <v>200</v>
-      </c>
-      <c r="K7" s="830">
-        <v>200</v>
-      </c>
-      <c r="L7" s="830">
-        <v>200</v>
-      </c>
-      <c r="M7" s="830">
-        <v>200</v>
-      </c>
-      <c r="N7" s="830" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="831">
-        <v>2500</v>
-      </c>
-      <c r="P7" s="832">
-        <v>3000</v>
-      </c>
-      <c r="Q7" s="830">
-        <v>5</v>
-      </c>
-      <c r="R7" s="830">
-        <v>12</v>
-      </c>
-      <c r="S7" s="832">
-        <v>8</v>
-      </c>
-      <c r="T7" s="832">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="40">
-      <c r="A8" s="829">
-        <v>20210909</v>
-      </c>
-      <c r="B8" s="830" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="827" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="830">
-        <v>24</v>
-      </c>
-      <c r="E8" s="830" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="830" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="830">
-        <v>500</v>
-      </c>
-      <c r="H8" s="830">
-        <v>200</v>
-      </c>
-      <c r="I8" s="830">
-        <v>200</v>
-      </c>
-      <c r="J8" s="830">
-        <v>200</v>
-      </c>
-      <c r="K8" s="830">
-        <v>200</v>
-      </c>
-      <c r="L8" s="830">
-        <v>200</v>
-      </c>
-      <c r="M8" s="830">
-        <v>200</v>
-      </c>
-      <c r="N8" s="830" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="830">
-        <v>2500</v>
-      </c>
-      <c r="P8" s="832">
-        <v>3000</v>
-      </c>
-      <c r="Q8" s="830">
-        <v>5</v>
-      </c>
-      <c r="R8" s="830">
-        <v>12</v>
-      </c>
-      <c r="S8" s="832">
-        <v>8</v>
-      </c>
-      <c r="T8" s="831">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="40">
-      <c r="A9" s="829">
-        <v>20210910</v>
-      </c>
-      <c r="B9" s="830" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="827" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="830">
-        <v>24</v>
-      </c>
-      <c r="E9" s="830" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="830" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="832">
-        <v>500</v>
-      </c>
-      <c r="H9" s="832">
-        <v>200</v>
-      </c>
-      <c r="I9" s="832">
-        <v>200</v>
-      </c>
-      <c r="J9" s="832">
-        <v>200</v>
-      </c>
-      <c r="K9" s="832">
-        <v>200</v>
-      </c>
-      <c r="L9" s="832">
-        <v>200</v>
-      </c>
-      <c r="M9" s="832">
-        <v>200</v>
-      </c>
-      <c r="N9" s="832" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="832">
-        <v>2500</v>
-      </c>
-      <c r="P9" s="832">
-        <v>3000</v>
-      </c>
-      <c r="Q9" s="832">
-        <v>5</v>
-      </c>
-      <c r="R9" s="831">
-        <v>8</v>
-      </c>
-      <c r="S9" s="832">
-        <v>8</v>
-      </c>
-      <c r="T9" s="832">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="40">
-      <c r="A10" s="829" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="830" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="827" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="830">
-        <v>24</v>
-      </c>
-      <c r="E10" s="830" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="830" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="832">
-        <v>500</v>
-      </c>
-      <c r="H10" s="832">
-        <v>200</v>
-      </c>
-      <c r="I10" s="832">
-        <v>200</v>
-      </c>
-      <c r="J10" s="832">
-        <v>200</v>
-      </c>
-      <c r="K10" s="832">
-        <v>200</v>
-      </c>
-      <c r="L10" s="832">
-        <v>200</v>
-      </c>
-      <c r="M10" s="832">
-        <v>200</v>
-      </c>
-      <c r="N10" s="832" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="832">
-        <v>2500</v>
-      </c>
-      <c r="P10" s="832">
-        <v>3000</v>
-      </c>
-      <c r="Q10" s="832">
-        <v>5</v>
-      </c>
-      <c r="R10" s="831">
+      <c r="R10" s="870">
         <v>7</v>
       </c>
-      <c r="S10" s="831">
+      <c r="S10" s="870">
         <v>7</v>
       </c>
-      <c r="T10" s="831">
+      <c r="T10" s="870">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6115,47 +6143,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40488B0-7F39-4449-932B-1D6C8403CC2B}">
   <dimension ref="B1:O55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="831" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="833" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B2" s="856" t="s">
+      <c r="D2" s="833"/>
+      <c r="E2" s="833"/>
+      <c r="F2" s="833"/>
+      <c r="G2" s="833"/>
+      <c r="H2" s="833"/>
+      <c r="I2" s="833"/>
+      <c r="J2" s="833"/>
+      <c r="K2" s="834"/>
+      <c r="L2" s="835" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="858" t="s">
+      <c r="M2" s="837" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="858"/>
-      <c r="E2" s="858"/>
-      <c r="F2" s="858"/>
-      <c r="G2" s="858"/>
-      <c r="H2" s="858"/>
-      <c r="I2" s="858"/>
-      <c r="J2" s="858"/>
-      <c r="K2" s="859"/>
-      <c r="L2" s="860" t="s">
+      <c r="N2" s="831" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="862" t="s">
+      <c r="O2" s="829" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="856" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="865" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="857"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="832"/>
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -6183,14 +6209,14 @@
       <c r="K3" s="1">
         <v>9</v>
       </c>
-      <c r="L3" s="861"/>
-      <c r="M3" s="863"/>
-      <c r="N3" s="864"/>
-      <c r="O3" s="866"/>
-    </row>
-    <row r="4" spans="2:15" ht="13.5" customHeight="1">
+      <c r="L3" s="836"/>
+      <c r="M3" s="838"/>
+      <c r="N3" s="839"/>
+      <c r="O3" s="830"/>
+    </row>
+    <row r="4" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3">
         <v>53.11</v>
@@ -6222,22 +6248,22 @@
       <c r="L4" s="11">
         <v>54.81</v>
       </c>
-      <c r="M4" s="834">
+      <c r="M4" s="828">
         <f>(MAX(C4:K4)-MIN(C4:K4))/2/AVERAGE(C4:K4)</f>
         <v>3.8220627584529349E-2</v>
       </c>
-      <c r="N4" s="850">
+      <c r="N4" s="843">
         <f>(MAX(L4:L27)-MIN(L4:L27))/2/AVERAGE(L4:L27)</f>
         <v>8.3559898390644122E-2</v>
       </c>
-      <c r="O4" s="833">
+      <c r="O4" s="827">
         <f>L4/DOE!$G$3</f>
         <v>0.10962000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="13">
         <v>54.85</v>
@@ -6269,18 +6295,18 @@
       <c r="L5" s="22">
         <v>56.04</v>
       </c>
-      <c r="M5" s="834">
+      <c r="M5" s="828">
         <f t="shared" ref="M5:M27" si="0">(MAX(C5:K5)-MIN(C5:K5))/2/AVERAGE(C5:K5)</f>
         <v>4.3989054785557077E-2</v>
       </c>
-      <c r="N5" s="851"/>
+      <c r="N5" s="844"/>
       <c r="O5" s="12">
         <v>0.11207300000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="24">
         <v>53.44</v>
@@ -6312,18 +6338,18 @@
       <c r="L6" s="32">
         <v>54.3</v>
       </c>
-      <c r="M6" s="834">
+      <c r="M6" s="828">
         <f t="shared" si="0"/>
         <v>3.4991507908899343E-2</v>
       </c>
-      <c r="N6" s="851"/>
+      <c r="N6" s="844"/>
       <c r="O6" s="12">
         <v>0.108598</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="33">
         <v>51.79</v>
@@ -6355,18 +6381,18 @@
       <c r="L7" s="42">
         <v>52.37</v>
       </c>
-      <c r="M7" s="834">
+      <c r="M7" s="828">
         <f t="shared" si="0"/>
         <v>1.4416039036809145E-2</v>
       </c>
-      <c r="N7" s="851"/>
+      <c r="N7" s="844"/>
       <c r="O7" s="12">
         <v>0.104744</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="25">
         <v>53.29</v>
@@ -6398,18 +6424,18 @@
       <c r="L8" s="50">
         <v>53.01</v>
       </c>
-      <c r="M8" s="834">
+      <c r="M8" s="828">
         <f t="shared" si="0"/>
         <v>1.5562448911152549E-2</v>
       </c>
-      <c r="N8" s="851"/>
+      <c r="N8" s="844"/>
       <c r="O8" s="12">
         <v>0.10602399999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="52">
         <v>52.57</v>
@@ -6441,18 +6467,18 @@
       <c r="L9" s="55">
         <v>52.44</v>
       </c>
-      <c r="M9" s="834">
+      <c r="M9" s="828">
         <f t="shared" si="0"/>
         <v>2.145127118644068E-2</v>
       </c>
-      <c r="N9" s="851"/>
+      <c r="N9" s="844"/>
       <c r="O9" s="12">
         <v>0.104889</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="57">
         <v>51.61</v>
@@ -6484,18 +6510,18 @@
       <c r="L10" s="64">
         <v>51.52</v>
       </c>
-      <c r="M10" s="834">
+      <c r="M10" s="828">
         <f t="shared" si="0"/>
         <v>1.8535691179642051E-2</v>
       </c>
-      <c r="N10" s="851"/>
+      <c r="N10" s="844"/>
       <c r="O10" s="12">
         <v>0.103044</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="65">
         <v>53.47</v>
@@ -6527,18 +6553,18 @@
       <c r="L11" s="67">
         <v>52.53</v>
       </c>
-      <c r="M11" s="834">
+      <c r="M11" s="828">
         <f t="shared" si="0"/>
         <v>1.7893779479261365E-2</v>
       </c>
-      <c r="N11" s="851"/>
+      <c r="N11" s="844"/>
       <c r="O11" s="12">
         <v>0.105064</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="44">
         <v>52.37</v>
@@ -6570,18 +6596,18 @@
       <c r="L12" s="74">
         <v>51.87</v>
       </c>
-      <c r="M12" s="834">
+      <c r="M12" s="828">
         <f t="shared" si="0"/>
         <v>1.6290726817042585E-2</v>
       </c>
-      <c r="N12" s="851"/>
+      <c r="N12" s="844"/>
       <c r="O12" s="12">
         <v>0.10374</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="33">
         <v>51.75</v>
@@ -6613,18 +6639,18 @@
       <c r="L13" s="79">
         <v>52.04</v>
       </c>
-      <c r="M13" s="834">
+      <c r="M13" s="828">
         <f t="shared" si="0"/>
         <v>1.6142118973395393E-2</v>
       </c>
-      <c r="N13" s="851"/>
+      <c r="N13" s="844"/>
       <c r="O13" s="12">
         <v>0.104076</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="81">
         <v>53.84</v>
@@ -6656,18 +6682,18 @@
       <c r="L14" s="83">
         <v>52.47</v>
       </c>
-      <c r="M14" s="834">
+      <c r="M14" s="828">
         <f t="shared" si="0"/>
         <v>2.0394332789766833E-2</v>
       </c>
-      <c r="N14" s="851"/>
+      <c r="N14" s="844"/>
       <c r="O14" s="12">
         <v>0.104931</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="85">
         <v>51.48</v>
@@ -6699,18 +6725,18 @@
       <c r="L15" s="93">
         <v>51.59</v>
       </c>
-      <c r="M15" s="834">
+      <c r="M15" s="828">
         <f t="shared" si="0"/>
         <v>2.3841316333563067E-2</v>
       </c>
-      <c r="N15" s="851"/>
+      <c r="N15" s="844"/>
       <c r="O15" s="12">
         <v>0.103182</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="94">
         <v>50.39</v>
@@ -6742,18 +6768,18 @@
       <c r="L16" s="103">
         <v>50.55</v>
       </c>
-      <c r="M16" s="834">
+      <c r="M16" s="828">
         <f t="shared" si="0"/>
         <v>2.1958939640392128E-2</v>
       </c>
-      <c r="N16" s="851"/>
+      <c r="N16" s="844"/>
       <c r="O16" s="12">
         <v>0.10109799999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="104">
         <v>53.53</v>
@@ -6785,18 +6811,18 @@
       <c r="L17" s="108">
         <v>53.34</v>
       </c>
-      <c r="M17" s="834">
+      <c r="M17" s="828">
         <f t="shared" si="0"/>
         <v>3.2529894587725504E-2</v>
       </c>
-      <c r="N17" s="851"/>
+      <c r="N17" s="844"/>
       <c r="O17" s="12">
         <v>0.106671</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="109">
         <v>51.38</v>
@@ -6828,18 +6854,18 @@
       <c r="L18" s="118">
         <v>50.52</v>
       </c>
-      <c r="M18" s="834">
+      <c r="M18" s="828">
         <f t="shared" si="0"/>
         <v>1.5735303820017189E-2</v>
       </c>
-      <c r="N18" s="851"/>
+      <c r="N18" s="844"/>
       <c r="O18" s="12">
         <v>0.101047</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="119">
         <v>49.85</v>
@@ -6871,18 +6897,18 @@
       <c r="L19" s="128">
         <v>49.47</v>
       </c>
-      <c r="M19" s="834">
+      <c r="M19" s="828">
         <f t="shared" si="0"/>
         <v>1.4249781031733523E-2</v>
       </c>
-      <c r="N19" s="851"/>
+      <c r="N19" s="844"/>
       <c r="O19" s="12">
         <v>9.8948999999999995E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="59">
         <v>52.11</v>
@@ -6914,18 +6940,18 @@
       <c r="L20" s="133">
         <v>50.97</v>
       </c>
-      <c r="M20" s="834">
+      <c r="M20" s="828">
         <f t="shared" si="0"/>
         <v>2.2364635103322011E-2</v>
       </c>
-      <c r="N20" s="851"/>
+      <c r="N20" s="844"/>
       <c r="O20" s="12">
         <v>0.101947</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="135">
         <v>50.26</v>
@@ -6957,18 +6983,18 @@
       <c r="L21" s="142">
         <v>49.7</v>
       </c>
-      <c r="M21" s="834">
+      <c r="M21" s="828">
         <f t="shared" si="0"/>
         <v>2.3942056200120743E-2</v>
       </c>
-      <c r="N21" s="851"/>
+      <c r="N21" s="844"/>
       <c r="O21" s="12">
         <v>9.9406999999999995E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="144">
         <v>48.56</v>
@@ -7000,18 +7026,18 @@
       <c r="L22" s="151">
         <v>48.65</v>
       </c>
-      <c r="M22" s="834">
+      <c r="M22" s="828">
         <f t="shared" si="0"/>
         <v>1.97336865906859E-2</v>
       </c>
-      <c r="N22" s="851"/>
+      <c r="N22" s="844"/>
       <c r="O22" s="12">
         <v>9.7295999999999994E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="153">
         <v>51.42</v>
@@ -7043,18 +7069,18 @@
       <c r="L23" s="161">
         <v>50.44</v>
       </c>
-      <c r="M23" s="834">
+      <c r="M23" s="828">
         <f t="shared" si="0"/>
         <v>2.0024231743584121E-2</v>
       </c>
-      <c r="N23" s="851"/>
+      <c r="N23" s="844"/>
       <c r="O23" s="12">
         <v>0.100878</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="156">
         <v>49.4</v>
@@ -7086,18 +7112,18 @@
       <c r="L24" s="170">
         <v>48.39</v>
       </c>
-      <c r="M24" s="834">
+      <c r="M24" s="828">
         <f t="shared" si="0"/>
         <v>2.4385203554453394E-2</v>
       </c>
-      <c r="N24" s="851"/>
+      <c r="N24" s="844"/>
       <c r="O24" s="12">
         <v>9.6780000000000005E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="167">
         <v>48.06</v>
@@ -7129,18 +7155,18 @@
       <c r="L25" s="175">
         <v>47.46</v>
       </c>
-      <c r="M25" s="834">
+      <c r="M25" s="828">
         <f t="shared" si="0"/>
         <v>1.6750163873021858E-2</v>
       </c>
-      <c r="N25" s="851"/>
+      <c r="N25" s="844"/>
       <c r="O25" s="12">
         <v>9.4923999999999994E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="61">
         <v>51.43</v>
@@ -7172,18 +7198,18 @@
       <c r="L26" s="179">
         <v>50.04</v>
       </c>
-      <c r="M26" s="834">
+      <c r="M26" s="828">
         <f t="shared" si="0"/>
         <v>2.6377725476264498E-2</v>
       </c>
-      <c r="N26" s="851"/>
+      <c r="N26" s="844"/>
       <c r="O26" s="12">
         <v>0.10008400000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="84" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="181">
         <v>47.77</v>
@@ -7215,47 +7241,47 @@
       <c r="L27" s="190">
         <v>47.65</v>
       </c>
-      <c r="M27" s="834">
+      <c r="M27" s="828">
         <f t="shared" si="0"/>
         <v>1.8153200419727143E-2</v>
       </c>
-      <c r="N27" s="852"/>
+      <c r="N27" s="845"/>
       <c r="O27" s="191">
         <v>9.5299999999999996E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B30" s="853" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="846" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="847" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="847"/>
+      <c r="E30" s="847"/>
+      <c r="F30" s="847"/>
+      <c r="G30" s="847"/>
+      <c r="H30" s="847"/>
+      <c r="I30" s="847"/>
+      <c r="J30" s="847"/>
+      <c r="K30" s="848"/>
+      <c r="L30" s="846" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="854" t="s">
+      <c r="M30" s="846" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="854"/>
-      <c r="E30" s="854"/>
-      <c r="F30" s="854"/>
-      <c r="G30" s="854"/>
-      <c r="H30" s="854"/>
-      <c r="I30" s="854"/>
-      <c r="J30" s="854"/>
-      <c r="K30" s="855"/>
-      <c r="L30" s="853" t="s">
+      <c r="N30" s="846" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="853" t="s">
-        <v>40</v>
-      </c>
-      <c r="N30" s="853" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="849"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="842"/>
       <c r="C31" s="192">
         <v>1</v>
       </c>
@@ -7283,13 +7309,13 @@
       <c r="K31" s="192">
         <v>9</v>
       </c>
-      <c r="L31" s="849"/>
-      <c r="M31" s="849"/>
-      <c r="N31" s="849"/>
-    </row>
-    <row r="32" spans="2:15" ht="13.5" customHeight="1">
+      <c r="L31" s="842"/>
+      <c r="M31" s="842"/>
+      <c r="N31" s="842"/>
+    </row>
+    <row r="32" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="193" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="53">
         <v>1.6420999999999999</v>
@@ -7324,13 +7350,13 @@
       <c r="M32" s="198">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="N32" s="847">
+      <c r="N32" s="840">
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="193" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" s="61">
         <v>1.6355999999999999</v>
@@ -7365,11 +7391,11 @@
       <c r="M33" s="198">
         <v>5.3E-3</v>
       </c>
-      <c r="N33" s="848"/>
-    </row>
-    <row r="34" spans="2:14">
+      <c r="N33" s="841"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="193" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="202">
         <v>1.6317999999999999</v>
@@ -7404,11 +7430,11 @@
       <c r="M34" s="198">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="N34" s="848"/>
-    </row>
-    <row r="35" spans="2:14">
+      <c r="N34" s="841"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="193" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="205">
         <v>1.6511</v>
@@ -7443,11 +7469,11 @@
       <c r="M35" s="198">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="N35" s="848"/>
-    </row>
-    <row r="36" spans="2:14">
+      <c r="N35" s="841"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="193" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="210">
         <v>1.6385000000000001</v>
@@ -7482,11 +7508,11 @@
       <c r="M36" s="198">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="N36" s="848"/>
-    </row>
-    <row r="37" spans="2:14">
+      <c r="N36" s="841"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="193" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="106">
         <v>1.6409</v>
@@ -7521,11 +7547,11 @@
       <c r="M37" s="198">
         <v>1.17E-2</v>
       </c>
-      <c r="N37" s="848"/>
-    </row>
-    <row r="38" spans="2:14">
+      <c r="N37" s="841"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="193" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" s="218">
         <v>1.6474</v>
@@ -7560,11 +7586,11 @@
       <c r="M38" s="198">
         <v>5.3E-3</v>
       </c>
-      <c r="N38" s="848"/>
-    </row>
-    <row r="39" spans="2:14">
+      <c r="N38" s="841"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="193" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="105">
         <v>1.6349</v>
@@ -7599,11 +7625,11 @@
       <c r="M39" s="198">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="N39" s="848"/>
-    </row>
-    <row r="40" spans="2:14">
+      <c r="N39" s="841"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="193" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C40" s="226">
         <v>1.6369</v>
@@ -7638,11 +7664,11 @@
       <c r="M40" s="198">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="N40" s="848"/>
-    </row>
-    <row r="41" spans="2:14">
+      <c r="N40" s="841"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="193" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="233">
         <v>1.6519999999999999</v>
@@ -7677,11 +7703,11 @@
       <c r="M41" s="198">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="N41" s="848"/>
-    </row>
-    <row r="42" spans="2:14">
+      <c r="N41" s="841"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="193" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="155">
         <v>1.6213</v>
@@ -7716,11 +7742,11 @@
       <c r="M42" s="198">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="N42" s="848"/>
-    </row>
-    <row r="43" spans="2:14">
+      <c r="N42" s="841"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="193" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" s="45">
         <v>1.6426000000000001</v>
@@ -7755,11 +7781,11 @@
       <c r="M43" s="198">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="N43" s="848"/>
-    </row>
-    <row r="44" spans="2:14">
+      <c r="N43" s="841"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="193" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="242">
         <v>1.6526000000000001</v>
@@ -7794,11 +7820,11 @@
       <c r="M44" s="198">
         <v>1.15E-2</v>
       </c>
-      <c r="N44" s="848"/>
-    </row>
-    <row r="45" spans="2:14">
+      <c r="N44" s="841"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="193" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C45" s="121">
         <v>1.6178999999999999</v>
@@ -7833,11 +7859,11 @@
       <c r="M45" s="198">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="N45" s="848"/>
-    </row>
-    <row r="46" spans="2:14">
+      <c r="N45" s="841"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="193" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="106">
         <v>1.6409</v>
@@ -7872,11 +7898,11 @@
       <c r="M46" s="198">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="N46" s="848"/>
-    </row>
-    <row r="47" spans="2:14">
+      <c r="N46" s="841"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="193" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" s="223">
         <v>1.6275999999999999</v>
@@ -7911,11 +7937,11 @@
       <c r="M47" s="198">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="N47" s="848"/>
-    </row>
-    <row r="48" spans="2:14">
+      <c r="N47" s="841"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="193" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="71">
         <v>1.6295999999999999</v>
@@ -7950,11 +7976,11 @@
       <c r="M48" s="198">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="N48" s="848"/>
-    </row>
-    <row r="49" spans="2:14">
+      <c r="N48" s="841"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="193" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C49" s="207">
         <v>1.6342000000000001</v>
@@ -7989,11 +8015,11 @@
       <c r="M49" s="198">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="N49" s="848"/>
-    </row>
-    <row r="50" spans="2:14">
+      <c r="N49" s="841"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="193" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="38">
         <v>1.6394</v>
@@ -8028,11 +8054,11 @@
       <c r="M50" s="198">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="N50" s="848"/>
-    </row>
-    <row r="51" spans="2:14">
+      <c r="N50" s="841"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="193" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="259">
         <v>1.6402000000000001</v>
@@ -8067,11 +8093,11 @@
       <c r="M51" s="198">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N51" s="848"/>
-    </row>
-    <row r="52" spans="2:14">
+      <c r="N51" s="841"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="193" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="33">
         <v>1.6373</v>
@@ -8106,11 +8132,11 @@
       <c r="M52" s="198">
         <v>3.8E-3</v>
       </c>
-      <c r="N52" s="848"/>
-    </row>
-    <row r="53" spans="2:14">
+      <c r="N52" s="841"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="193" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="37">
         <v>1.6375</v>
@@ -8145,11 +8171,11 @@
       <c r="M53" s="198">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="N53" s="848"/>
-    </row>
-    <row r="54" spans="2:14">
+      <c r="N53" s="841"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="193" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="223">
         <v>1.6276999999999999</v>
@@ -8184,11 +8210,11 @@
       <c r="M54" s="198">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="N54" s="848"/>
-    </row>
-    <row r="55" spans="2:14">
+      <c r="N54" s="841"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="193" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="269">
         <v>1.6406000000000001</v>
@@ -8223,16 +8249,10 @@
       <c r="M55" s="198">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="N55" s="849"/>
+      <c r="N55" s="842"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
     <mergeCell ref="N32:N55"/>
     <mergeCell ref="N4:N27"/>
     <mergeCell ref="B30:B31"/>
@@ -8240,7 +8260,14 @@
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8249,42 +8276,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76F84B7-BE1A-4D09-9084-24C55CF7D7DC}">
   <dimension ref="B2:O55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B2" s="856" t="s">
+    <row r="2" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="831" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="833" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="833"/>
+      <c r="E2" s="833"/>
+      <c r="F2" s="833"/>
+      <c r="G2" s="833"/>
+      <c r="H2" s="833"/>
+      <c r="I2" s="833"/>
+      <c r="J2" s="833"/>
+      <c r="K2" s="834"/>
+      <c r="L2" s="835" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="858" t="s">
+      <c r="M2" s="837" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="858"/>
-      <c r="E2" s="858"/>
-      <c r="F2" s="858"/>
-      <c r="G2" s="858"/>
-      <c r="H2" s="858"/>
-      <c r="I2" s="858"/>
-      <c r="J2" s="858"/>
-      <c r="K2" s="859"/>
-      <c r="L2" s="860" t="s">
+      <c r="N2" s="831" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="862" t="s">
+      <c r="O2" s="829" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="856" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="865" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="857"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="832"/>
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -8312,14 +8337,14 @@
       <c r="K3" s="1">
         <v>9</v>
       </c>
-      <c r="L3" s="861"/>
-      <c r="M3" s="863"/>
-      <c r="N3" s="864"/>
-      <c r="O3" s="866"/>
-    </row>
-    <row r="4" spans="2:15" ht="13.5" customHeight="1">
+      <c r="L3" s="836"/>
+      <c r="M3" s="838"/>
+      <c r="N3" s="839"/>
+      <c r="O3" s="830"/>
+    </row>
+    <row r="4" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="271">
         <v>52.55</v>
@@ -8354,16 +8379,16 @@
       <c r="M4" s="278">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="N4" s="867">
+      <c r="N4" s="849">
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="O4" s="12">
         <v>0.10789799999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="13">
         <v>54.06</v>
@@ -8398,14 +8423,14 @@
       <c r="M5" s="23">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="N5" s="868"/>
+      <c r="N5" s="850"/>
       <c r="O5" s="12">
         <v>0.110669</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="259">
         <v>51.81</v>
@@ -8440,14 +8465,14 @@
       <c r="M6" s="285">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="N6" s="868"/>
+      <c r="N6" s="850"/>
       <c r="O6" s="12">
         <v>0.106242</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="73">
         <v>51.56</v>
@@ -8482,14 +8507,14 @@
       <c r="M7" s="288">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="N7" s="868"/>
+      <c r="N7" s="850"/>
       <c r="O7" s="12">
         <v>0.103822</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="81">
         <v>53.1</v>
@@ -8524,14 +8549,14 @@
       <c r="M8" s="80">
         <v>1.24E-2</v>
       </c>
-      <c r="N8" s="868"/>
+      <c r="N8" s="850"/>
       <c r="O8" s="12">
         <v>0.105184</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="52">
         <v>51.84</v>
@@ -8566,14 +8591,14 @@
       <c r="M9" s="68">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="N9" s="868"/>
+      <c r="N9" s="850"/>
       <c r="O9" s="12">
         <v>0.10356700000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="33">
         <v>51.05</v>
@@ -8608,14 +8633,14 @@
       <c r="M10" s="292">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="N10" s="868"/>
+      <c r="N10" s="850"/>
       <c r="O10" s="12">
         <v>0.102267</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="104">
         <v>52.75</v>
@@ -8650,14 +8675,14 @@
       <c r="M11" s="294">
         <v>1.4E-2</v>
       </c>
-      <c r="N11" s="868"/>
+      <c r="N11" s="850"/>
       <c r="O11" s="12">
         <v>0.103931</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="57">
         <v>50.88</v>
@@ -8692,14 +8717,14 @@
       <c r="M12" s="43">
         <v>1.01E-2</v>
       </c>
-      <c r="N12" s="868"/>
+      <c r="N12" s="850"/>
       <c r="O12" s="12">
         <v>0.10192900000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="72">
         <v>50.58</v>
@@ -8734,14 +8759,14 @@
       <c r="M13" s="162">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="N13" s="868"/>
+      <c r="N13" s="850"/>
       <c r="O13" s="12">
         <v>0.10151300000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="65">
         <v>52.73</v>
@@ -8776,14 +8801,14 @@
       <c r="M14" s="297">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="N14" s="868"/>
+      <c r="N14" s="850"/>
       <c r="O14" s="12">
         <v>0.10334699999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="90">
         <v>50.86</v>
@@ -8818,14 +8843,14 @@
       <c r="M15" s="304">
         <v>1.77E-2</v>
       </c>
-      <c r="N15" s="868"/>
+      <c r="N15" s="850"/>
       <c r="O15" s="12">
         <v>0.101116</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="305">
         <v>49.73</v>
@@ -8860,14 +8885,14 @@
       <c r="M16" s="312">
         <v>1.04E-2</v>
       </c>
-      <c r="N16" s="868"/>
+      <c r="N16" s="850"/>
       <c r="O16" s="12">
         <v>0.100393</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="63">
         <v>51.48</v>
@@ -8902,14 +8927,14 @@
       <c r="M17" s="313">
         <v>2.9399999999999999E-2</v>
       </c>
-      <c r="N17" s="868"/>
+      <c r="N17" s="850"/>
       <c r="O17" s="12">
         <v>0.103076</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="111">
         <v>50.01</v>
@@ -8944,14 +8969,14 @@
       <c r="M18" s="316">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="N18" s="868"/>
+      <c r="N18" s="850"/>
       <c r="O18" s="12">
         <v>0.100027</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="160">
         <v>48.92</v>
@@ -8986,14 +9011,14 @@
       <c r="M19" s="322">
         <v>1.29E-2</v>
       </c>
-      <c r="N19" s="868"/>
+      <c r="N19" s="850"/>
       <c r="O19" s="12">
         <v>9.8530999999999994E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="38">
         <v>51.59</v>
@@ -9028,14 +9053,14 @@
       <c r="M20" s="325">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="N20" s="868"/>
+      <c r="N20" s="850"/>
       <c r="O20" s="12">
         <v>0.10077999999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="140">
         <v>49.57</v>
@@ -9070,14 +9095,14 @@
       <c r="M21" s="329">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N21" s="868"/>
+      <c r="N21" s="850"/>
       <c r="O21" s="12">
         <v>9.8487000000000005E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="156">
         <v>48.89</v>
@@ -9112,14 +9137,14 @@
       <c r="M22" s="51">
         <v>1.17E-2</v>
       </c>
-      <c r="N22" s="868"/>
+      <c r="N22" s="850"/>
       <c r="O22" s="12">
         <v>9.6837999999999994E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="73">
         <v>51.56</v>
@@ -9154,14 +9179,14 @@
       <c r="M23" s="334">
         <v>2.4E-2</v>
       </c>
-      <c r="N23" s="868"/>
+      <c r="N23" s="850"/>
       <c r="O23" s="12">
         <v>0.10044699999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="335">
         <v>49.12</v>
@@ -9196,14 +9221,14 @@
       <c r="M24" s="339">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="N24" s="868"/>
+      <c r="N24" s="850"/>
       <c r="O24" s="12">
         <v>9.6780000000000005E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="332">
         <v>48.02</v>
@@ -9238,14 +9263,14 @@
       <c r="M25" s="134">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="N25" s="868"/>
+      <c r="N25" s="850"/>
       <c r="O25" s="12">
         <v>9.5230999999999996E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="131">
         <v>50.48</v>
@@ -9280,14 +9305,14 @@
       <c r="M26" s="346">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="N26" s="868"/>
+      <c r="N26" s="850"/>
       <c r="O26" s="12">
         <v>9.9953E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="84" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="347">
         <v>47.87</v>
@@ -9322,43 +9347,43 @@
       <c r="M27" s="355">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="N27" s="857"/>
+      <c r="N27" s="832"/>
       <c r="O27" s="191">
         <v>9.5124E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B30" s="853" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="846" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="847" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="847"/>
+      <c r="E30" s="847"/>
+      <c r="F30" s="847"/>
+      <c r="G30" s="847"/>
+      <c r="H30" s="847"/>
+      <c r="I30" s="847"/>
+      <c r="J30" s="847"/>
+      <c r="K30" s="848"/>
+      <c r="L30" s="846" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="854" t="s">
+      <c r="M30" s="846" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="854"/>
-      <c r="E30" s="854"/>
-      <c r="F30" s="854"/>
-      <c r="G30" s="854"/>
-      <c r="H30" s="854"/>
-      <c r="I30" s="854"/>
-      <c r="J30" s="854"/>
-      <c r="K30" s="855"/>
-      <c r="L30" s="853" t="s">
+      <c r="N30" s="846" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="853" t="s">
-        <v>40</v>
-      </c>
-      <c r="N30" s="853" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="849"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="842"/>
       <c r="C31" s="192">
         <v>1</v>
       </c>
@@ -9386,13 +9411,13 @@
       <c r="K31" s="192">
         <v>9</v>
       </c>
-      <c r="L31" s="849"/>
-      <c r="M31" s="849"/>
-      <c r="N31" s="849"/>
-    </row>
-    <row r="32" spans="2:15" ht="13.5" customHeight="1">
+      <c r="L31" s="842"/>
+      <c r="M31" s="842"/>
+      <c r="N31" s="842"/>
+    </row>
+    <row r="32" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="193" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="63">
         <v>1.6208</v>
@@ -9427,13 +9452,13 @@
       <c r="M32" s="198">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N32" s="847">
+      <c r="N32" s="840">
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="193" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" s="357">
         <v>1.6096999999999999</v>
@@ -9468,11 +9493,11 @@
       <c r="M33" s="198">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="N33" s="848"/>
-    </row>
-    <row r="34" spans="2:14">
+      <c r="N33" s="841"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="193" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="53">
         <v>1.6246</v>
@@ -9507,11 +9532,11 @@
       <c r="M34" s="198">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="N34" s="848"/>
-    </row>
-    <row r="35" spans="2:14">
+      <c r="N34" s="841"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="193" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="63">
         <v>1.6207</v>
@@ -9546,11 +9571,11 @@
       <c r="M35" s="198">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="N35" s="848"/>
-    </row>
-    <row r="36" spans="2:14">
+      <c r="N35" s="841"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="193" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="207">
         <v>1.6155999999999999</v>
@@ -9585,11 +9610,11 @@
       <c r="M36" s="198">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="N36" s="848"/>
-    </row>
-    <row r="37" spans="2:14">
+      <c r="N36" s="841"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="193" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="317">
         <v>1.6041000000000001</v>
@@ -9624,11 +9649,11 @@
       <c r="M37" s="198">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="N37" s="848"/>
-    </row>
-    <row r="38" spans="2:14">
+      <c r="N37" s="841"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="193" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" s="39">
         <v>1.6234</v>
@@ -9663,11 +9688,11 @@
       <c r="M38" s="198">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="N38" s="848"/>
-    </row>
-    <row r="39" spans="2:14">
+      <c r="N38" s="841"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="193" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="60">
         <v>1.6094999999999999</v>
@@ -9702,11 +9727,11 @@
       <c r="M39" s="198">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N39" s="848"/>
-    </row>
-    <row r="40" spans="2:14">
+      <c r="N39" s="841"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="193" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C40" s="69">
         <v>1.6174999999999999</v>
@@ -9741,11 +9766,11 @@
       <c r="M40" s="198">
         <v>5.3E-3</v>
       </c>
-      <c r="N40" s="848"/>
-    </row>
-    <row r="41" spans="2:14">
+      <c r="N40" s="841"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="193" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="105">
         <v>1.6162000000000001</v>
@@ -9780,11 +9805,11 @@
       <c r="M41" s="198">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="N41" s="848"/>
-    </row>
-    <row r="42" spans="2:14">
+      <c r="N41" s="841"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="193" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="199">
         <v>1.6080000000000001</v>
@@ -9819,11 +9844,11 @@
       <c r="M42" s="198">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="N42" s="848"/>
-    </row>
-    <row r="43" spans="2:14">
+      <c r="N42" s="841"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="193" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" s="115">
         <v>1.6112</v>
@@ -9858,11 +9883,11 @@
       <c r="M43" s="198">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="N43" s="848"/>
-    </row>
-    <row r="44" spans="2:14">
+      <c r="N43" s="841"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="193" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="367">
         <v>1.6332</v>
@@ -9897,11 +9922,11 @@
       <c r="M44" s="198">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N44" s="848"/>
-    </row>
-    <row r="45" spans="2:14">
+      <c r="N44" s="841"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="193" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C45" s="104">
         <v>1.6268</v>
@@ -9936,11 +9961,11 @@
       <c r="M45" s="198">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="N45" s="848"/>
-    </row>
-    <row r="46" spans="2:14">
+      <c r="N45" s="841"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="193" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="228">
         <v>1.6296999999999999</v>
@@ -9975,11 +10000,11 @@
       <c r="M46" s="198">
         <v>1.41E-2</v>
       </c>
-      <c r="N46" s="848"/>
-    </row>
-    <row r="47" spans="2:14">
+      <c r="N46" s="841"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="193" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" s="25">
         <v>1.6256999999999999</v>
@@ -10014,11 +10039,11 @@
       <c r="M47" s="198">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="N47" s="848"/>
-    </row>
-    <row r="48" spans="2:14">
+      <c r="N47" s="841"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="193" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="243">
         <v>1.6054999999999999</v>
@@ -10053,11 +10078,11 @@
       <c r="M48" s="198">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N48" s="848"/>
-    </row>
-    <row r="49" spans="2:14">
+      <c r="N48" s="841"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="193" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C49" s="157">
         <v>1.6161000000000001</v>
@@ -10092,11 +10117,11 @@
       <c r="M49" s="198">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="N49" s="848"/>
-    </row>
-    <row r="50" spans="2:14">
+      <c r="N49" s="841"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="193" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="229">
         <v>1.6121000000000001</v>
@@ -10131,11 +10156,11 @@
       <c r="M50" s="198">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N50" s="848"/>
-    </row>
-    <row r="51" spans="2:14">
+      <c r="N50" s="841"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="193" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="371">
         <v>1.5979000000000001</v>
@@ -10170,11 +10195,11 @@
       <c r="M51" s="198">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="N51" s="848"/>
-    </row>
-    <row r="52" spans="2:14">
+      <c r="N51" s="841"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="193" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="135">
         <v>1.6091</v>
@@ -10209,11 +10234,11 @@
       <c r="M52" s="198">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="N52" s="848"/>
-    </row>
-    <row r="53" spans="2:14">
+      <c r="N52" s="841"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="193" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="35">
         <v>1.6243000000000001</v>
@@ -10248,11 +10273,11 @@
       <c r="M53" s="198">
         <v>1.2E-2</v>
       </c>
-      <c r="N53" s="848"/>
-    </row>
-    <row r="54" spans="2:14">
+      <c r="N53" s="841"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="193" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="223">
         <v>1.6109</v>
@@ -10287,11 +10312,11 @@
       <c r="M54" s="198">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="N54" s="848"/>
-    </row>
-    <row r="55" spans="2:14">
+      <c r="N54" s="841"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="193" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="104">
         <v>1.6268</v>
@@ -10326,16 +10351,10 @@
       <c r="M55" s="198">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="N55" s="849"/>
+      <c r="N55" s="842"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
     <mergeCell ref="N32:N55"/>
     <mergeCell ref="N4:N27"/>
     <mergeCell ref="B30:B31"/>
@@ -10343,7 +10362,14 @@
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10352,42 +10378,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E72F65D-05BC-4EE2-A32F-7169A16239B3}">
   <dimension ref="B2:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:N55"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B2" s="856" t="s">
+    <row r="2" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="831" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="833" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="833"/>
+      <c r="E2" s="833"/>
+      <c r="F2" s="833"/>
+      <c r="G2" s="833"/>
+      <c r="H2" s="833"/>
+      <c r="I2" s="833"/>
+      <c r="J2" s="833"/>
+      <c r="K2" s="834"/>
+      <c r="L2" s="835" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="858" t="s">
+      <c r="M2" s="837" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="858"/>
-      <c r="E2" s="858"/>
-      <c r="F2" s="858"/>
-      <c r="G2" s="858"/>
-      <c r="H2" s="858"/>
-      <c r="I2" s="858"/>
-      <c r="J2" s="858"/>
-      <c r="K2" s="859"/>
-      <c r="L2" s="860" t="s">
+      <c r="N2" s="831" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="862" t="s">
+      <c r="O2" s="829" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="856" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="865" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="857"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="832"/>
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -10415,14 +10439,14 @@
       <c r="K3" s="1">
         <v>9</v>
       </c>
-      <c r="L3" s="861"/>
-      <c r="M3" s="863"/>
-      <c r="N3" s="864"/>
-      <c r="O3" s="866"/>
-    </row>
-    <row r="4" spans="2:15" ht="13.5" customHeight="1">
+      <c r="L3" s="836"/>
+      <c r="M3" s="838"/>
+      <c r="N3" s="839"/>
+      <c r="O3" s="830"/>
+    </row>
+    <row r="4" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="384">
         <v>51.79</v>
@@ -10457,16 +10481,16 @@
       <c r="M4" s="393">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="N4" s="867">
+      <c r="N4" s="849">
         <v>6.0600000000000001E-2</v>
       </c>
       <c r="O4" s="12">
         <v>0.106324</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="394">
         <v>53.68</v>
@@ -10501,14 +10525,14 @@
       <c r="M5" s="23">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="N5" s="868"/>
+      <c r="N5" s="850"/>
       <c r="O5" s="12">
         <v>0.10926</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="28">
         <v>52.03</v>
@@ -10543,14 +10567,14 @@
       <c r="M6" s="402">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="N6" s="868"/>
+      <c r="N6" s="850"/>
       <c r="O6" s="12">
         <v>0.105127</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="73">
         <v>51.36</v>
@@ -10585,14 +10609,14 @@
       <c r="M7" s="404">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="N7" s="868"/>
+      <c r="N7" s="850"/>
       <c r="O7" s="12">
         <v>0.103102</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="49">
         <v>52.23</v>
@@ -10627,14 +10651,14 @@
       <c r="M8" s="405">
         <v>1.52E-2</v>
       </c>
-      <c r="N8" s="868"/>
+      <c r="N8" s="850"/>
       <c r="O8" s="12">
         <v>0.103798</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="59">
         <v>51.22</v>
@@ -10669,14 +10693,14 @@
       <c r="M9" s="407">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="N9" s="868"/>
+      <c r="N9" s="850"/>
       <c r="O9" s="12">
         <v>0.102913</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="82">
         <v>51.11</v>
@@ -10711,14 +10735,14 @@
       <c r="M10" s="408">
         <v>1.41E-2</v>
       </c>
-      <c r="N10" s="868"/>
+      <c r="N10" s="850"/>
       <c r="O10" s="12">
         <v>0.101993</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="47">
         <v>52.51</v>
@@ -10753,14 +10777,14 @@
       <c r="M11" s="292">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="N11" s="868"/>
+      <c r="N11" s="850"/>
       <c r="O11" s="12">
         <v>0.10352</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="109">
         <v>50.63</v>
@@ -10795,14 +10819,14 @@
       <c r="M12" s="404">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="N12" s="868"/>
+      <c r="N12" s="850"/>
       <c r="O12" s="12">
         <v>0.10165299999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="33">
         <v>50.9</v>
@@ -10837,14 +10861,14 @@
       <c r="M13" s="409">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="N13" s="868"/>
+      <c r="N13" s="850"/>
       <c r="O13" s="12">
         <v>0.101378</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="24">
         <v>52.29</v>
@@ -10879,14 +10903,14 @@
       <c r="M14" s="411">
         <v>1.54E-2</v>
       </c>
-      <c r="N14" s="868"/>
+      <c r="N14" s="850"/>
       <c r="O14" s="12">
         <v>0.102578</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="90">
         <v>50.78</v>
@@ -10921,14 +10945,14 @@
       <c r="M15" s="417">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="N15" s="868"/>
+      <c r="N15" s="850"/>
       <c r="O15" s="12">
         <v>0.101558</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="418">
         <v>50.76</v>
@@ -10963,14 +10987,14 @@
       <c r="M16" s="426">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="N16" s="868"/>
+      <c r="N16" s="850"/>
       <c r="O16" s="12">
         <v>0.100271</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="78">
         <v>51.9</v>
@@ -11005,14 +11029,14 @@
       <c r="M17" s="334">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="N17" s="868"/>
+      <c r="N17" s="850"/>
       <c r="O17" s="12">
         <v>0.102491</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="159">
         <v>50.36</v>
@@ -11047,14 +11071,14 @@
       <c r="M18" s="152">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="N18" s="868"/>
+      <c r="N18" s="850"/>
       <c r="O18" s="12">
         <v>9.9839999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="130">
         <v>49.68</v>
@@ -11089,14 +11113,14 @@
       <c r="M19" s="429">
         <v>1.49E-2</v>
       </c>
-      <c r="N19" s="868"/>
+      <c r="N19" s="850"/>
       <c r="O19" s="12">
         <v>9.9186999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="78">
         <v>51.9</v>
@@ -11131,14 +11155,14 @@
       <c r="M20" s="285">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="N20" s="868"/>
+      <c r="N20" s="850"/>
       <c r="O20" s="12">
         <v>0.10140399999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="223">
         <v>50.1</v>
@@ -11173,14 +11197,14 @@
       <c r="M21" s="435">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="N21" s="868"/>
+      <c r="N21" s="850"/>
       <c r="O21" s="12">
         <v>9.9249000000000004E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="341">
         <v>49.06</v>
@@ -11215,14 +11239,14 @@
       <c r="M22" s="43">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="N22" s="868"/>
+      <c r="N22" s="850"/>
       <c r="O22" s="12">
         <v>9.8071000000000005E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="76">
         <v>51.05</v>
@@ -11257,14 +11281,14 @@
       <c r="M23" s="442">
         <v>2.7E-2</v>
       </c>
-      <c r="N23" s="868"/>
+      <c r="N23" s="850"/>
       <c r="O23" s="12">
         <v>0.100629</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="60">
         <v>49.96</v>
@@ -11299,14 +11323,14 @@
       <c r="M24" s="180">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="N24" s="868"/>
+      <c r="N24" s="850"/>
       <c r="O24" s="12">
         <v>9.7753000000000007E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="177">
         <v>49.04</v>
@@ -11341,14 +11365,14 @@
       <c r="M25" s="56">
         <v>1.32E-2</v>
       </c>
-      <c r="N25" s="868"/>
+      <c r="N25" s="850"/>
       <c r="O25" s="12">
         <v>9.6956000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="54">
         <v>50.48</v>
@@ -11383,14 +11407,14 @@
       <c r="M26" s="452">
         <v>1.38E-2</v>
       </c>
-      <c r="N26" s="868"/>
+      <c r="N26" s="850"/>
       <c r="O26" s="12">
         <v>0.100304</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="84" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="453">
         <v>48.8</v>
@@ -11425,38 +11449,38 @@
       <c r="M27" s="461">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="N27" s="857"/>
+      <c r="N27" s="832"/>
       <c r="O27" s="191">
         <v>9.7598000000000004E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B30" s="853" t="s">
+    <row r="30" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="846" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="847" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="847"/>
+      <c r="E30" s="847"/>
+      <c r="F30" s="847"/>
+      <c r="G30" s="847"/>
+      <c r="H30" s="847"/>
+      <c r="I30" s="847"/>
+      <c r="J30" s="847"/>
+      <c r="K30" s="848"/>
+      <c r="L30" s="846" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="854" t="s">
+      <c r="M30" s="846" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="854"/>
-      <c r="E30" s="854"/>
-      <c r="F30" s="854"/>
-      <c r="G30" s="854"/>
-      <c r="H30" s="854"/>
-      <c r="I30" s="854"/>
-      <c r="J30" s="854"/>
-      <c r="K30" s="855"/>
-      <c r="L30" s="853" t="s">
+      <c r="N30" s="846" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="853" t="s">
-        <v>40</v>
-      </c>
-      <c r="N30" s="853" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="849"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="842"/>
       <c r="C31" s="192">
         <v>1</v>
       </c>
@@ -11484,13 +11508,13 @@
       <c r="K31" s="192">
         <v>9</v>
       </c>
-      <c r="L31" s="849"/>
-      <c r="M31" s="849"/>
-      <c r="N31" s="849"/>
-    </row>
-    <row r="32" spans="2:15" ht="13.5" customHeight="1">
+      <c r="L31" s="842"/>
+      <c r="M31" s="842"/>
+      <c r="N31" s="842"/>
+    </row>
+    <row r="32" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="193" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="49">
         <v>1.6297999999999999</v>
@@ -11525,13 +11549,13 @@
       <c r="M32" s="198">
         <v>4.3E-3</v>
       </c>
-      <c r="N32" s="869">
+      <c r="N32" s="851">
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="193" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" s="59">
         <v>1.6242000000000001</v>
@@ -11566,11 +11590,11 @@
       <c r="M33" s="198">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="N33" s="848"/>
-    </row>
-    <row r="34" spans="2:14">
+      <c r="N33" s="841"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="193" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="199">
         <v>1.6140000000000001</v>
@@ -11605,11 +11629,11 @@
       <c r="M34" s="198">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="N34" s="848"/>
-    </row>
-    <row r="35" spans="2:14">
+      <c r="N34" s="841"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="193" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="40">
         <v>1.6244000000000001</v>
@@ -11644,11 +11668,11 @@
       <c r="M35" s="198">
         <v>6.3E-3</v>
       </c>
-      <c r="N35" s="848"/>
-    </row>
-    <row r="36" spans="2:14">
+      <c r="N35" s="841"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="193" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="38">
         <v>1.6251</v>
@@ -11683,11 +11707,11 @@
       <c r="M36" s="198">
         <v>1.29E-2</v>
       </c>
-      <c r="N36" s="848"/>
-    </row>
-    <row r="37" spans="2:14">
+      <c r="N36" s="841"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="193" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="105">
         <v>1.6206</v>
@@ -11722,11 +11746,11 @@
       <c r="M37" s="198">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="N37" s="848"/>
-    </row>
-    <row r="38" spans="2:14">
+      <c r="N37" s="841"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="193" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" s="38">
         <v>1.6252</v>
@@ -11761,11 +11785,11 @@
       <c r="M38" s="198">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="N38" s="848"/>
-    </row>
-    <row r="39" spans="2:14">
+      <c r="N38" s="841"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="193" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="263">
         <v>1.6274999999999999</v>
@@ -11800,11 +11824,11 @@
       <c r="M39" s="198">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="N39" s="848"/>
-    </row>
-    <row r="40" spans="2:14">
+      <c r="N39" s="841"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="193" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C40" s="15">
         <v>1.6331</v>
@@ -11839,11 +11863,11 @@
       <c r="M40" s="198">
         <v>7.6E-3</v>
       </c>
-      <c r="N40" s="848"/>
-    </row>
-    <row r="41" spans="2:14">
+      <c r="N40" s="841"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="193" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="110">
         <v>1.6136999999999999</v>
@@ -11878,11 +11902,11 @@
       <c r="M41" s="198">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="N41" s="848"/>
-    </row>
-    <row r="42" spans="2:14">
+      <c r="N41" s="841"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="193" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="40">
         <v>1.6245000000000001</v>
@@ -11917,11 +11941,11 @@
       <c r="M42" s="198">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="N42" s="848"/>
-    </row>
-    <row r="43" spans="2:14">
+      <c r="N42" s="841"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="193" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" s="48">
         <v>1.6264000000000001</v>
@@ -11956,11 +11980,11 @@
       <c r="M43" s="198">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="N43" s="848"/>
-    </row>
-    <row r="44" spans="2:14">
+      <c r="N43" s="841"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="193" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="121">
         <v>1.6104000000000001</v>
@@ -11995,11 +12019,11 @@
       <c r="M44" s="198">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="N44" s="848"/>
-    </row>
-    <row r="45" spans="2:14">
+      <c r="N44" s="841"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="193" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C45" s="78">
         <v>1.6282000000000001</v>
@@ -12034,11 +12058,11 @@
       <c r="M45" s="198">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="N45" s="848"/>
-    </row>
-    <row r="46" spans="2:14">
+      <c r="N45" s="841"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="193" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="106">
         <v>1.6271</v>
@@ -12073,11 +12097,11 @@
       <c r="M46" s="198">
         <v>6.6E-3</v>
       </c>
-      <c r="N46" s="848"/>
-    </row>
-    <row r="47" spans="2:14">
+      <c r="N46" s="841"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="193" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" s="70">
         <v>1.6257999999999999</v>
@@ -12112,11 +12136,11 @@
       <c r="M47" s="198">
         <v>0.01</v>
       </c>
-      <c r="N47" s="848"/>
-    </row>
-    <row r="48" spans="2:14">
+      <c r="N47" s="841"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="193" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="336">
         <v>1.6044</v>
@@ -12151,11 +12175,11 @@
       <c r="M48" s="198">
         <v>1.03E-2</v>
       </c>
-      <c r="N48" s="848"/>
-    </row>
-    <row r="49" spans="2:14">
+      <c r="N48" s="841"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="193" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C49" s="72">
         <v>1.6202000000000001</v>
@@ -12190,11 +12214,11 @@
       <c r="M49" s="198">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="N49" s="848"/>
-    </row>
-    <row r="50" spans="2:14">
+      <c r="N49" s="841"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="193" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="104">
         <v>1.6307</v>
@@ -12229,11 +12253,11 @@
       <c r="M50" s="198">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="N50" s="848"/>
-    </row>
-    <row r="51" spans="2:14">
+      <c r="N50" s="841"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="193" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="226">
         <v>1.6221000000000001</v>
@@ -12268,11 +12292,11 @@
       <c r="M51" s="198">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="N51" s="848"/>
-    </row>
-    <row r="52" spans="2:14">
+      <c r="N51" s="841"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="193" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="127">
         <v>1.6133999999999999</v>
@@ -12307,11 +12331,11 @@
       <c r="M52" s="198">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="N52" s="848"/>
-    </row>
-    <row r="53" spans="2:14">
+      <c r="N52" s="841"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="193" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="76">
         <v>1.6233</v>
@@ -12346,11 +12370,11 @@
       <c r="M53" s="198">
         <v>1.11E-2</v>
       </c>
-      <c r="N53" s="848"/>
-    </row>
-    <row r="54" spans="2:14">
+      <c r="N53" s="841"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="193" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="228">
         <v>1.6335999999999999</v>
@@ -12385,11 +12409,11 @@
       <c r="M54" s="198">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="N54" s="848"/>
-    </row>
-    <row r="55" spans="2:14">
+      <c r="N54" s="841"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="193" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="49">
         <v>1.6297999999999999</v>
@@ -12424,16 +12448,10 @@
       <c r="M55" s="198">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="N55" s="849"/>
+      <c r="N55" s="842"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
     <mergeCell ref="N32:N55"/>
     <mergeCell ref="N4:N27"/>
     <mergeCell ref="B30:B31"/>
@@ -12441,7 +12459,14 @@
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12450,42 +12475,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDB0DDD-8EB3-4C22-ACAA-E30F23B93EF1}">
   <dimension ref="B2:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:N55"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B2" s="856" t="s">
+    <row r="2" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="831" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="833" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="833"/>
+      <c r="E2" s="833"/>
+      <c r="F2" s="833"/>
+      <c r="G2" s="833"/>
+      <c r="H2" s="833"/>
+      <c r="I2" s="833"/>
+      <c r="J2" s="833"/>
+      <c r="K2" s="834"/>
+      <c r="L2" s="835" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="858" t="s">
+      <c r="M2" s="837" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="858"/>
-      <c r="E2" s="858"/>
-      <c r="F2" s="858"/>
-      <c r="G2" s="858"/>
-      <c r="H2" s="858"/>
-      <c r="I2" s="858"/>
-      <c r="J2" s="858"/>
-      <c r="K2" s="859"/>
-      <c r="L2" s="860" t="s">
+      <c r="N2" s="831" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="862" t="s">
+      <c r="O2" s="829" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="856" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="865" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="857"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="832"/>
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -12513,14 +12536,14 @@
       <c r="K3" s="1">
         <v>9</v>
       </c>
-      <c r="L3" s="861"/>
-      <c r="M3" s="863"/>
-      <c r="N3" s="864"/>
-      <c r="O3" s="866"/>
-    </row>
-    <row r="4" spans="2:15" ht="13.5" customHeight="1">
+      <c r="L3" s="836"/>
+      <c r="M3" s="838"/>
+      <c r="N3" s="839"/>
+      <c r="O3" s="830"/>
+    </row>
+    <row r="4" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="385">
         <v>52.63</v>
@@ -12555,16 +12578,16 @@
       <c r="M4" s="498">
         <v>3.15E-2</v>
       </c>
-      <c r="N4" s="867">
+      <c r="N4" s="849">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="O4" s="12">
         <v>0.10741299999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="279">
         <v>54.18</v>
@@ -12599,14 +12622,14 @@
       <c r="M5" s="23">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="N5" s="868"/>
+      <c r="N5" s="850"/>
       <c r="O5" s="12">
         <v>0.109913</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="36">
         <v>52.38</v>
@@ -12641,14 +12664,14 @@
       <c r="M6" s="502">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="N6" s="868"/>
+      <c r="N6" s="850"/>
       <c r="O6" s="12">
         <v>0.10662199999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="131">
         <v>51.44</v>
@@ -12683,14 +12706,14 @@
       <c r="M7" s="503">
         <v>1.89E-2</v>
       </c>
-      <c r="N7" s="868"/>
+      <c r="N7" s="850"/>
       <c r="O7" s="12">
         <v>0.10376000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="31">
         <v>53.99</v>
@@ -12725,14 +12748,14 @@
       <c r="M8" s="505">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="N8" s="868"/>
+      <c r="N8" s="850"/>
       <c r="O8" s="12">
         <v>0.105702</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="40">
         <v>52.14</v>
@@ -12767,14 +12790,14 @@
       <c r="M9" s="429">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="N9" s="868"/>
+      <c r="N9" s="850"/>
       <c r="O9" s="12">
         <v>0.103891</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="82">
         <v>52.02</v>
@@ -12809,14 +12832,14 @@
       <c r="M10" s="409">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="N10" s="868"/>
+      <c r="N10" s="850"/>
       <c r="O10" s="12">
         <v>0.103176</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="219">
         <v>53.68</v>
@@ -12851,14 +12874,14 @@
       <c r="M11" s="508">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="N11" s="868"/>
+      <c r="N11" s="850"/>
       <c r="O11" s="12">
         <v>0.105013</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="61">
         <v>51.6</v>
@@ -12893,14 +12916,14 @@
       <c r="M12" s="56">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="N12" s="868"/>
+      <c r="N12" s="850"/>
       <c r="O12" s="12">
         <v>0.103607</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="82">
         <v>51.98</v>
@@ -12935,14 +12958,14 @@
       <c r="M13" s="511">
         <v>1.66E-2</v>
       </c>
-      <c r="N13" s="868"/>
+      <c r="N13" s="850"/>
       <c r="O13" s="12">
         <v>0.102716</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="367">
         <v>54.11</v>
@@ -12977,14 +13000,14 @@
       <c r="M14" s="513">
         <v>2.3E-2</v>
       </c>
-      <c r="N14" s="868"/>
+      <c r="N14" s="850"/>
       <c r="O14" s="12">
         <v>0.105084</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="514">
         <v>51.6</v>
@@ -13019,14 +13042,14 @@
       <c r="M15" s="520">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="N15" s="868"/>
+      <c r="N15" s="850"/>
       <c r="O15" s="12">
         <v>0.102816</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="521">
         <v>51.1</v>
@@ -13061,14 +13084,14 @@
       <c r="M16" s="527">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="N16" s="868"/>
+      <c r="N16" s="850"/>
       <c r="O16" s="12">
         <v>0.102064</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="228">
         <v>53.57</v>
@@ -13103,14 +13126,14 @@
       <c r="M17" s="528">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="N17" s="868"/>
+      <c r="N17" s="850"/>
       <c r="O17" s="12">
         <v>0.10634200000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="132">
         <v>51.47</v>
@@ -13145,14 +13168,14 @@
       <c r="M18" s="530">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="N18" s="868"/>
+      <c r="N18" s="850"/>
       <c r="O18" s="12">
         <v>0.102044</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="132">
         <v>51.48</v>
@@ -13187,14 +13210,14 @@
       <c r="M19" s="405">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="N19" s="868"/>
+      <c r="N19" s="850"/>
       <c r="O19" s="12">
         <v>0.101273</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="47">
         <v>53.22</v>
@@ -13229,14 +13252,14 @@
       <c r="M20" s="511">
         <v>1.67E-2</v>
       </c>
-      <c r="N20" s="868"/>
+      <c r="N20" s="850"/>
       <c r="O20" s="12">
         <v>0.104409</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="33">
         <v>51.84</v>
@@ -13271,14 +13294,14 @@
       <c r="M21" s="534">
         <v>2.18E-2</v>
       </c>
-      <c r="N21" s="868"/>
+      <c r="N21" s="850"/>
       <c r="O21" s="12">
         <v>0.101504</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="328">
         <v>51.07</v>
@@ -13313,14 +13336,14 @@
       <c r="M22" s="537">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="N22" s="868"/>
+      <c r="N22" s="850"/>
       <c r="O22" s="12">
         <v>0.100436</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="47">
         <v>53.24</v>
@@ -13355,14 +13378,14 @@
       <c r="M23" s="285">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N23" s="868"/>
+      <c r="N23" s="850"/>
       <c r="O23" s="12">
         <v>0.103713</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="229">
         <v>51.17</v>
@@ -13397,14 +13420,14 @@
       <c r="M24" s="134">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="N24" s="868"/>
+      <c r="N24" s="850"/>
       <c r="O24" s="12">
         <v>0.101162</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="123">
         <v>50.11</v>
@@ -13439,14 +13462,14 @@
       <c r="M25" s="339">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="N25" s="868"/>
+      <c r="N25" s="850"/>
       <c r="O25" s="12">
         <v>9.9243999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="269">
         <v>52.49</v>
@@ -13481,14 +13504,14 @@
       <c r="M26" s="541">
         <v>2.4E-2</v>
       </c>
-      <c r="N26" s="868"/>
+      <c r="N26" s="850"/>
       <c r="O26" s="12">
         <v>0.103616</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="84" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="542">
         <v>50.9</v>
@@ -13523,38 +13546,38 @@
       <c r="M27" s="548">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="N27" s="857"/>
+      <c r="N27" s="832"/>
       <c r="O27" s="191">
         <v>0.10004</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B30" s="853" t="s">
+    <row r="30" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="846" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="847" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="847"/>
+      <c r="E30" s="847"/>
+      <c r="F30" s="847"/>
+      <c r="G30" s="847"/>
+      <c r="H30" s="847"/>
+      <c r="I30" s="847"/>
+      <c r="J30" s="847"/>
+      <c r="K30" s="848"/>
+      <c r="L30" s="846" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="854" t="s">
+      <c r="M30" s="846" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="854"/>
-      <c r="E30" s="854"/>
-      <c r="F30" s="854"/>
-      <c r="G30" s="854"/>
-      <c r="H30" s="854"/>
-      <c r="I30" s="854"/>
-      <c r="J30" s="854"/>
-      <c r="K30" s="855"/>
-      <c r="L30" s="853" t="s">
+      <c r="N30" s="846" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="853" t="s">
-        <v>40</v>
-      </c>
-      <c r="N30" s="853" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="849"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="842"/>
       <c r="C31" s="192">
         <v>1</v>
       </c>
@@ -13582,13 +13605,13 @@
       <c r="K31" s="192">
         <v>9</v>
       </c>
-      <c r="L31" s="849"/>
-      <c r="M31" s="849"/>
-      <c r="N31" s="849"/>
-    </row>
-    <row r="32" spans="2:15" ht="13.5" customHeight="1">
+      <c r="L31" s="842"/>
+      <c r="M31" s="842"/>
+      <c r="N31" s="842"/>
+    </row>
+    <row r="32" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="193" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="61">
         <v>1.6236999999999999</v>
@@ -13623,13 +13646,13 @@
       <c r="M32" s="198">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="N32" s="869">
+      <c r="N32" s="851">
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="193" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" s="65">
         <v>1.6305000000000001</v>
@@ -13664,11 +13687,11 @@
       <c r="M33" s="198">
         <v>1.01E-2</v>
       </c>
-      <c r="N33" s="848"/>
-    </row>
-    <row r="34" spans="2:14">
+      <c r="N33" s="841"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="193" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="36">
         <v>1.6274</v>
@@ -13703,11 +13726,11 @@
       <c r="M34" s="198">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="N34" s="848"/>
-    </row>
-    <row r="35" spans="2:14">
+      <c r="N34" s="841"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="193" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="555">
         <v>1.6445000000000001</v>
@@ -13742,11 +13765,11 @@
       <c r="M35" s="198">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="N35" s="848"/>
-    </row>
-    <row r="36" spans="2:14">
+      <c r="N35" s="841"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="193" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="125">
         <v>1.6173999999999999</v>
@@ -13781,11 +13804,11 @@
       <c r="M36" s="198">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="N36" s="848"/>
-    </row>
-    <row r="37" spans="2:14">
+      <c r="N36" s="841"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="193" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="63">
         <v>1.6264000000000001</v>
@@ -13820,11 +13843,11 @@
       <c r="M37" s="198">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="N37" s="848"/>
-    </row>
-    <row r="38" spans="2:14">
+      <c r="N37" s="841"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="193" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" s="37">
         <v>1.6252</v>
@@ -13859,11 +13882,11 @@
       <c r="M38" s="198">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="N38" s="848"/>
-    </row>
-    <row r="39" spans="2:14">
+      <c r="N38" s="841"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="193" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="358">
         <v>1.6151</v>
@@ -13898,11 +13921,11 @@
       <c r="M39" s="198">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="N39" s="848"/>
-    </row>
-    <row r="40" spans="2:14">
+      <c r="N39" s="841"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="193" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C40" s="216">
         <v>1.6392</v>
@@ -13937,11 +13960,11 @@
       <c r="M40" s="198">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="N40" s="848"/>
-    </row>
-    <row r="41" spans="2:14">
+      <c r="N40" s="841"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="193" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="318">
         <v>1.6176999999999999</v>
@@ -13976,11 +13999,11 @@
       <c r="M41" s="198">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="N41" s="848"/>
-    </row>
-    <row r="42" spans="2:14">
+      <c r="N41" s="841"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="193" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="328">
         <v>1.6187</v>
@@ -14015,11 +14038,11 @@
       <c r="M42" s="198">
         <v>8.6E-3</v>
       </c>
-      <c r="N42" s="848"/>
-    </row>
-    <row r="43" spans="2:14">
+      <c r="N42" s="841"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="193" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" s="28">
         <v>1.6293</v>
@@ -14054,11 +14077,11 @@
       <c r="M43" s="198">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="N43" s="848"/>
-    </row>
-    <row r="44" spans="2:14">
+      <c r="N43" s="841"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="193" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="242">
         <v>1.6383000000000001</v>
@@ -14093,11 +14116,11 @@
       <c r="M44" s="198">
         <v>8.6E-3</v>
       </c>
-      <c r="N44" s="848"/>
-    </row>
-    <row r="45" spans="2:14">
+      <c r="N44" s="841"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="193" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C45" s="28">
         <v>1.6294</v>
@@ -14132,11 +14155,11 @@
       <c r="M45" s="198">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="N45" s="848"/>
-    </row>
-    <row r="46" spans="2:14">
+      <c r="N45" s="841"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="193" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="61">
         <v>1.6237999999999999</v>
@@ -14171,11 +14194,11 @@
       <c r="M46" s="198">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N46" s="848"/>
-    </row>
-    <row r="47" spans="2:14">
+      <c r="N46" s="841"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="193" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" s="135">
         <v>1.6171</v>
@@ -14210,11 +14233,11 @@
       <c r="M47" s="198">
         <v>6.3E-3</v>
       </c>
-      <c r="N47" s="848"/>
-    </row>
-    <row r="48" spans="2:14">
+      <c r="N47" s="841"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="193" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="159">
         <v>1.6209</v>
@@ -14249,11 +14272,11 @@
       <c r="M48" s="198">
         <v>1.04E-2</v>
       </c>
-      <c r="N48" s="848"/>
-    </row>
-    <row r="49" spans="2:14">
+      <c r="N48" s="841"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="193" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C49" s="194">
         <v>1.6240000000000001</v>
@@ -14288,11 +14311,11 @@
       <c r="M49" s="198">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="N49" s="848"/>
-    </row>
-    <row r="50" spans="2:14">
+      <c r="N49" s="841"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="193" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="267">
         <v>1.6223000000000001</v>
@@ -14327,11 +14350,11 @@
       <c r="M50" s="198">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="N50" s="848"/>
-    </row>
-    <row r="51" spans="2:14">
+      <c r="N50" s="841"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="193" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="127">
         <v>1.6153</v>
@@ -14366,11 +14389,11 @@
       <c r="M51" s="198">
         <v>1.34E-2</v>
       </c>
-      <c r="N51" s="848"/>
-    </row>
-    <row r="52" spans="2:14">
+      <c r="N51" s="841"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="193" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="78">
         <v>1.6288</v>
@@ -14405,11 +14428,11 @@
       <c r="M52" s="198">
         <v>1.09E-2</v>
       </c>
-      <c r="N52" s="848"/>
-    </row>
-    <row r="53" spans="2:14">
+      <c r="N52" s="841"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="193" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="211">
         <v>1.6251</v>
@@ -14444,11 +14467,11 @@
       <c r="M53" s="198">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="N53" s="848"/>
-    </row>
-    <row r="54" spans="2:14">
+      <c r="N53" s="841"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="193" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="372">
         <v>1.6142000000000001</v>
@@ -14483,11 +14506,11 @@
       <c r="M54" s="198">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N54" s="848"/>
-    </row>
-    <row r="55" spans="2:14">
+      <c r="N54" s="841"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="193" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="116">
         <v>1.6162000000000001</v>
@@ -14522,16 +14545,10 @@
       <c r="M55" s="198">
         <v>0.01</v>
       </c>
-      <c r="N55" s="849"/>
+      <c r="N55" s="842"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
     <mergeCell ref="N32:N55"/>
     <mergeCell ref="N4:N27"/>
     <mergeCell ref="B30:B31"/>
@@ -14539,7 +14556,14 @@
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14548,43 +14572,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7B6E16-3F41-4488-BC80-EA77C5CD7812}">
   <dimension ref="B2:P55"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:O55"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:16" ht="13.5" customHeight="1">
-      <c r="B2" s="856" t="s">
+    <row r="2" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="831" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="833" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="833"/>
+      <c r="E2" s="833"/>
+      <c r="F2" s="833"/>
+      <c r="G2" s="833"/>
+      <c r="H2" s="833"/>
+      <c r="I2" s="833"/>
+      <c r="J2" s="833"/>
+      <c r="K2" s="834"/>
+      <c r="L2" s="835" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="858" t="s">
+      <c r="M2" s="837" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="858"/>
-      <c r="E2" s="858"/>
-      <c r="F2" s="858"/>
-      <c r="G2" s="858"/>
-      <c r="H2" s="858"/>
-      <c r="I2" s="858"/>
-      <c r="J2" s="858"/>
-      <c r="K2" s="859"/>
-      <c r="L2" s="860" t="s">
+      <c r="N2" s="831" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="862" t="s">
+      <c r="O2" s="829" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="856" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="865" t="s">
-        <v>42</v>
-      </c>
       <c r="P2" s="578"/>
     </row>
-    <row r="3" spans="2:16">
-      <c r="B3" s="857"/>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="832"/>
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -14612,15 +14634,15 @@
       <c r="K3" s="1">
         <v>9</v>
       </c>
-      <c r="L3" s="861"/>
-      <c r="M3" s="863"/>
-      <c r="N3" s="864"/>
-      <c r="O3" s="866"/>
+      <c r="L3" s="836"/>
+      <c r="M3" s="838"/>
+      <c r="N3" s="839"/>
+      <c r="O3" s="830"/>
       <c r="P3" s="578"/>
     </row>
-    <row r="4" spans="2:16" ht="13.5" customHeight="1">
+    <row r="4" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3">
         <v>52.73</v>
@@ -14655,7 +14677,7 @@
       <c r="M4" s="585">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="N4" s="867">
+      <c r="N4" s="849">
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="O4" s="12">
@@ -14663,9 +14685,9 @@
       </c>
       <c r="P4" s="578"/>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="14">
         <v>53.44</v>
@@ -14700,15 +14722,15 @@
       <c r="M5" s="23">
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="N5" s="868"/>
+      <c r="N5" s="850"/>
       <c r="O5" s="12">
         <v>0.109753</v>
       </c>
       <c r="P5" s="578"/>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="70">
         <v>52.11</v>
@@ -14743,15 +14765,15 @@
       <c r="M6" s="508">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="N6" s="868"/>
+      <c r="N6" s="850"/>
       <c r="O6" s="12">
         <v>0.105876</v>
       </c>
       <c r="P6" s="578"/>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="46">
         <v>51.8</v>
@@ -14786,15 +14808,15 @@
       <c r="M7" s="587">
         <v>1.41E-2</v>
       </c>
-      <c r="N7" s="868"/>
+      <c r="N7" s="850"/>
       <c r="O7" s="12">
         <v>0.103962</v>
       </c>
       <c r="P7" s="578"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="106">
         <v>52.38</v>
@@ -14829,15 +14851,15 @@
       <c r="M8" s="588">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="N8" s="868"/>
+      <c r="N8" s="850"/>
       <c r="O8" s="12">
         <v>0.104569</v>
       </c>
       <c r="P8" s="578"/>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="69">
         <v>51.29</v>
@@ -14872,15 +14894,15 @@
       <c r="M9" s="589">
         <v>1.09E-2</v>
       </c>
-      <c r="N9" s="868"/>
+      <c r="N9" s="850"/>
       <c r="O9" s="12">
         <v>0.103351</v>
       </c>
       <c r="P9" s="578"/>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="37">
         <v>51.58</v>
@@ -14915,15 +14937,15 @@
       <c r="M10" s="43">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="N10" s="868"/>
+      <c r="N10" s="850"/>
       <c r="O10" s="12">
         <v>0.103218</v>
       </c>
       <c r="P10" s="578"/>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="106">
         <v>52.39</v>
@@ -14958,15 +14980,15 @@
       <c r="M11" s="80">
         <v>1.24E-2</v>
       </c>
-      <c r="N11" s="868"/>
+      <c r="N11" s="850"/>
       <c r="O11" s="12">
         <v>0.10394399999999999</v>
       </c>
       <c r="P11" s="578"/>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="229">
         <v>50.9</v>
@@ -15001,15 +15023,15 @@
       <c r="M12" s="592">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="N12" s="868"/>
+      <c r="N12" s="850"/>
       <c r="O12" s="12">
         <v>0.102851</v>
       </c>
       <c r="P12" s="578"/>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="158">
         <v>51.09</v>
@@ -15044,60 +15066,60 @@
       <c r="M13" s="329">
         <v>1.49E-2</v>
       </c>
-      <c r="N13" s="868"/>
+      <c r="N13" s="850"/>
       <c r="O13" s="12">
         <v>0.102658</v>
       </c>
       <c r="P13" s="578"/>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" s="192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F14" s="192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G14" s="192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H14" s="192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I14" s="192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J14" s="192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K14" s="192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L14" s="192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M14" s="594" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="868"/>
+        <v>22</v>
+      </c>
+      <c r="N14" s="850"/>
       <c r="O14" s="12">
         <v>0</v>
       </c>
       <c r="P14" s="578" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="514">
         <v>51.25</v>
@@ -15132,15 +15154,15 @@
       <c r="M15" s="520">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="N15" s="868"/>
+      <c r="N15" s="850"/>
       <c r="O15" s="12">
         <v>0.102182</v>
       </c>
       <c r="P15" s="578"/>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="307">
         <v>51.22</v>
@@ -15175,15 +15197,15 @@
       <c r="M16" s="610">
         <v>1.11E-2</v>
       </c>
-      <c r="N16" s="868"/>
+      <c r="N16" s="850"/>
       <c r="O16" s="12">
         <v>0.10206</v>
       </c>
       <c r="P16" s="578"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="65">
         <v>53.04</v>
@@ -15218,15 +15240,15 @@
       <c r="M17" s="75">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="N17" s="868"/>
+      <c r="N17" s="850"/>
       <c r="O17" s="12">
         <v>0.104847</v>
       </c>
       <c r="P17" s="578"/>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="238">
         <v>50.98</v>
@@ -15261,15 +15283,15 @@
       <c r="M18" s="294">
         <v>1.4E-2</v>
       </c>
-      <c r="N18" s="868"/>
+      <c r="N18" s="850"/>
       <c r="O18" s="12">
         <v>0.101729</v>
       </c>
       <c r="P18" s="578"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="112">
         <v>50.86</v>
@@ -15304,15 +15326,15 @@
       <c r="M19" s="588">
         <v>1.23E-2</v>
       </c>
-      <c r="N19" s="868"/>
+      <c r="N19" s="850"/>
       <c r="O19" s="12">
         <v>0.101129</v>
       </c>
       <c r="P19" s="578"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="45">
         <v>52.8</v>
@@ -15347,15 +15369,15 @@
       <c r="M20" s="134">
         <v>0.02</v>
       </c>
-      <c r="N20" s="868"/>
+      <c r="N20" s="850"/>
       <c r="O20" s="12">
         <v>0.10356899999999999</v>
       </c>
       <c r="P20" s="578"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="158">
         <v>51.09</v>
@@ -15390,15 +15412,15 @@
       <c r="M21" s="51">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="N21" s="868"/>
+      <c r="N21" s="850"/>
       <c r="O21" s="12">
         <v>0.101211</v>
       </c>
       <c r="P21" s="578"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="314">
         <v>50.41</v>
@@ -15433,15 +15455,15 @@
       <c r="M22" s="43">
         <v>1.03E-2</v>
       </c>
-      <c r="N22" s="868"/>
+      <c r="N22" s="850"/>
       <c r="O22" s="12">
         <v>0.100122</v>
       </c>
       <c r="P22" s="578"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="25">
         <v>52.91</v>
@@ -15476,15 +15498,15 @@
       <c r="M23" s="617">
         <v>2.76E-2</v>
       </c>
-      <c r="N23" s="868"/>
+      <c r="N23" s="850"/>
       <c r="O23" s="12">
         <v>0.103184</v>
       </c>
       <c r="P23" s="578"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="356">
         <v>50.81</v>
@@ -15519,15 +15541,15 @@
       <c r="M24" s="294">
         <v>1.4E-2</v>
       </c>
-      <c r="N24" s="868"/>
+      <c r="N24" s="850"/>
       <c r="O24" s="12">
         <v>0.10048899999999999</v>
       </c>
       <c r="P24" s="578"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="431">
         <v>50.37</v>
@@ -15562,15 +15584,15 @@
       <c r="M25" s="619">
         <v>1.26E-2</v>
       </c>
-      <c r="N25" s="868"/>
+      <c r="N25" s="850"/>
       <c r="O25" s="12">
         <v>9.9856E-2</v>
       </c>
       <c r="P25" s="578"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="52">
         <v>52.24</v>
@@ -15605,15 +15627,15 @@
       <c r="M26" s="620">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="N26" s="868"/>
+      <c r="N26" s="850"/>
       <c r="O26" s="12">
         <v>0.102549</v>
       </c>
       <c r="P26" s="578"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="84" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="516">
         <v>50.47</v>
@@ -15648,40 +15670,40 @@
       <c r="M27" s="626">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="N27" s="857"/>
+      <c r="N27" s="832"/>
       <c r="O27" s="191">
         <v>9.9791000000000005E-2</v>
       </c>
       <c r="P27" s="578"/>
     </row>
-    <row r="30" spans="2:16" ht="13.5" customHeight="1">
-      <c r="B30" s="853" t="s">
+    <row r="30" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="846" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="847" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="847"/>
+      <c r="E30" s="847"/>
+      <c r="F30" s="847"/>
+      <c r="G30" s="847"/>
+      <c r="H30" s="847"/>
+      <c r="I30" s="847"/>
+      <c r="J30" s="847"/>
+      <c r="K30" s="848"/>
+      <c r="L30" s="846" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="854" t="s">
+      <c r="M30" s="846" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="854"/>
-      <c r="E30" s="854"/>
-      <c r="F30" s="854"/>
-      <c r="G30" s="854"/>
-      <c r="H30" s="854"/>
-      <c r="I30" s="854"/>
-      <c r="J30" s="854"/>
-      <c r="K30" s="855"/>
-      <c r="L30" s="853" t="s">
+      <c r="N30" s="846" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="853" t="s">
-        <v>40</v>
-      </c>
-      <c r="N30" s="853" t="s">
-        <v>41</v>
-      </c>
       <c r="O30" s="578"/>
     </row>
-    <row r="31" spans="2:16">
-      <c r="B31" s="849"/>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="842"/>
       <c r="C31" s="192">
         <v>1</v>
       </c>
@@ -15709,14 +15731,14 @@
       <c r="K31" s="192">
         <v>9</v>
       </c>
-      <c r="L31" s="849"/>
-      <c r="M31" s="849"/>
-      <c r="N31" s="849"/>
+      <c r="L31" s="842"/>
+      <c r="M31" s="842"/>
+      <c r="N31" s="842"/>
       <c r="O31" s="578"/>
     </row>
-    <row r="32" spans="2:16" ht="13.5" customHeight="1">
+    <row r="32" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="193" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="106">
         <v>1.6337999999999999</v>
@@ -15751,14 +15773,14 @@
       <c r="M32" s="198">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="N32" s="869">
+      <c r="N32" s="851">
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="O32" s="578"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="193" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" s="38">
         <v>1.6328</v>
@@ -15793,12 +15815,12 @@
       <c r="M33" s="198">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="N33" s="848"/>
+      <c r="N33" s="841"/>
       <c r="O33" s="578"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="193" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="14">
         <v>1.6369</v>
@@ -15833,12 +15855,12 @@
       <c r="M34" s="198">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="N34" s="848"/>
+      <c r="N34" s="841"/>
       <c r="O34" s="578"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="193" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="204">
         <v>1.6425000000000001</v>
@@ -15873,12 +15895,12 @@
       <c r="M35" s="198">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="N35" s="848"/>
+      <c r="N35" s="841"/>
       <c r="O35" s="578"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="193" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="382">
         <v>1.6452</v>
@@ -15913,12 +15935,12 @@
       <c r="M36" s="198">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="N36" s="848"/>
+      <c r="N36" s="841"/>
       <c r="O36" s="578"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="193" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="632">
         <v>1.6459999999999999</v>
@@ -15953,12 +15975,12 @@
       <c r="M37" s="198">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="N37" s="848"/>
+      <c r="N37" s="841"/>
       <c r="O37" s="578"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="193" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" s="49">
         <v>1.6355</v>
@@ -15993,12 +16015,12 @@
       <c r="M38" s="198">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="N38" s="848"/>
+      <c r="N38" s="841"/>
       <c r="O38" s="578"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="193" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="234">
         <v>1.6392</v>
@@ -16033,12 +16055,12 @@
       <c r="M39" s="198">
         <v>5.3E-3</v>
       </c>
-      <c r="N39" s="848"/>
+      <c r="N39" s="841"/>
       <c r="O39" s="578"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="193" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C40" s="635">
         <v>1.6446000000000001</v>
@@ -16073,12 +16095,12 @@
       <c r="M40" s="198">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="N40" s="848"/>
+      <c r="N40" s="841"/>
       <c r="O40" s="578"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="193" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="367">
         <v>1.6395</v>
@@ -16113,54 +16135,54 @@
       <c r="M41" s="198">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="N41" s="848"/>
+      <c r="N41" s="841"/>
       <c r="O41" s="578"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="193" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D42" s="192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E42" s="192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F42" s="192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G42" s="192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H42" s="192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I42" s="192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J42" s="192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K42" s="192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L42" s="192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M42" s="192" t="s">
-        <v>24</v>
-      </c>
-      <c r="N42" s="848"/>
+        <v>22</v>
+      </c>
+      <c r="N42" s="841"/>
       <c r="O42" s="578" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="193" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" s="367">
         <v>1.6395999999999999</v>
@@ -16195,12 +16217,12 @@
       <c r="M43" s="198">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="N43" s="848"/>
+      <c r="N43" s="841"/>
       <c r="O43" s="578"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="193" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="195">
         <v>1.6279999999999999</v>
@@ -16235,12 +16257,12 @@
       <c r="M44" s="198">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="N44" s="848"/>
+      <c r="N44" s="841"/>
       <c r="O44" s="578"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="193" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C45" s="153">
         <v>1.6302000000000001</v>
@@ -16275,12 +16297,12 @@
       <c r="M45" s="198">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="N45" s="848"/>
+      <c r="N45" s="841"/>
       <c r="O45" s="578"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="193" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="16">
         <v>1.6402000000000001</v>
@@ -16315,12 +16337,12 @@
       <c r="M46" s="198">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="N46" s="848"/>
+      <c r="N46" s="841"/>
       <c r="O46" s="578"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="193" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" s="215">
         <v>1.6304000000000001</v>
@@ -16355,12 +16377,12 @@
       <c r="M47" s="198">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="N47" s="848"/>
+      <c r="N47" s="841"/>
       <c r="O47" s="578"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="193" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="116">
         <v>1.6248</v>
@@ -16395,12 +16417,12 @@
       <c r="M48" s="198">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="N48" s="848"/>
+      <c r="N48" s="841"/>
       <c r="O48" s="578"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="193" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C49" s="153">
         <v>1.6302000000000001</v>
@@ -16435,12 +16457,12 @@
       <c r="M49" s="198">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="N49" s="848"/>
+      <c r="N49" s="841"/>
       <c r="O49" s="578"/>
     </row>
-    <row r="50" spans="2:15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="193" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="289">
         <v>1.6361000000000001</v>
@@ -16475,12 +16497,12 @@
       <c r="M50" s="198">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="N50" s="848"/>
+      <c r="N50" s="841"/>
       <c r="O50" s="578"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="193" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="144">
         <v>1.6185</v>
@@ -16515,12 +16537,12 @@
       <c r="M51" s="198">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="N51" s="848"/>
+      <c r="N51" s="841"/>
       <c r="O51" s="578"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="193" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="356">
         <v>1.6264000000000001</v>
@@ -16555,12 +16577,12 @@
       <c r="M52" s="198">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="N52" s="848"/>
+      <c r="N52" s="841"/>
       <c r="O52" s="578"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="193" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="40">
         <v>1.6323000000000001</v>
@@ -16595,12 +16617,12 @@
       <c r="M53" s="198">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="N53" s="848"/>
+      <c r="N53" s="841"/>
       <c r="O53" s="578"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="193" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="25">
         <v>1.6353</v>
@@ -16635,12 +16657,12 @@
       <c r="M54" s="198">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="N54" s="848"/>
+      <c r="N54" s="841"/>
       <c r="O54" s="578"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="193" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="356">
         <v>1.6264000000000001</v>
@@ -16675,17 +16697,11 @@
       <c r="M55" s="198">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="N55" s="849"/>
+      <c r="N55" s="842"/>
       <c r="O55" s="578"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
     <mergeCell ref="N32:N55"/>
     <mergeCell ref="N4:N27"/>
     <mergeCell ref="B30:B31"/>
@@ -16693,7 +16709,14 @@
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16702,42 +16725,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D4C07E-DB4A-4453-BFA9-68A16C6029C3}">
   <dimension ref="B2:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:N55"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B2" s="856" t="s">
+    <row r="2" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="831" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="833" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="833"/>
+      <c r="E2" s="833"/>
+      <c r="F2" s="833"/>
+      <c r="G2" s="833"/>
+      <c r="H2" s="833"/>
+      <c r="I2" s="833"/>
+      <c r="J2" s="833"/>
+      <c r="K2" s="834"/>
+      <c r="L2" s="835" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="858" t="s">
+      <c r="M2" s="837" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="858"/>
-      <c r="E2" s="858"/>
-      <c r="F2" s="858"/>
-      <c r="G2" s="858"/>
-      <c r="H2" s="858"/>
-      <c r="I2" s="858"/>
-      <c r="J2" s="858"/>
-      <c r="K2" s="859"/>
-      <c r="L2" s="860" t="s">
+      <c r="N2" s="831" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="862" t="s">
+      <c r="O2" s="829" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="856" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="865" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="857"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="832"/>
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -16765,14 +16786,14 @@
       <c r="K3" s="1">
         <v>9</v>
       </c>
-      <c r="L3" s="861"/>
-      <c r="M3" s="863"/>
-      <c r="N3" s="864"/>
-      <c r="O3" s="866"/>
-    </row>
-    <row r="4" spans="2:15" ht="13.5" customHeight="1">
+      <c r="L3" s="836"/>
+      <c r="M3" s="838"/>
+      <c r="N3" s="839"/>
+      <c r="O3" s="830"/>
+    </row>
+    <row r="4" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="385">
         <v>53.12</v>
@@ -16807,16 +16828,16 @@
       <c r="M4" s="654">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="N4" s="867">
+      <c r="N4" s="849">
         <v>3.6700000000000003E-2</v>
       </c>
       <c r="O4" s="12">
         <v>0.10752</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="25">
         <v>53.42</v>
@@ -16851,14 +16872,14 @@
       <c r="M5" s="23">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="N5" s="868"/>
+      <c r="N5" s="850"/>
       <c r="O5" s="12">
         <v>0.109638</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="239">
         <v>51.98</v>
@@ -16893,14 +16914,14 @@
       <c r="M6" s="658">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="N6" s="868"/>
+      <c r="N6" s="850"/>
       <c r="O6" s="12">
         <v>0.10669099999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="76">
         <v>52.49</v>
@@ -16935,14 +16956,14 @@
       <c r="M7" s="80">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="N7" s="868"/>
+      <c r="N7" s="850"/>
       <c r="O7" s="12">
         <v>0.104838</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="208">
         <v>53.63</v>
@@ -16977,14 +16998,14 @@
       <c r="M8" s="294">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="N8" s="868"/>
+      <c r="N8" s="850"/>
       <c r="O8" s="12">
         <v>0.10586</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="210">
         <v>52.61</v>
@@ -17019,14 +17040,14 @@
       <c r="M9" s="75">
         <v>1.44E-2</v>
       </c>
-      <c r="N9" s="868"/>
+      <c r="N9" s="850"/>
       <c r="O9" s="12">
         <v>0.10481799999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="76">
         <v>52.5</v>
@@ -17061,14 +17082,14 @@
       <c r="M10" s="659">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="N10" s="868"/>
+      <c r="N10" s="850"/>
       <c r="O10" s="12">
         <v>0.104451</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="25">
         <v>53.43</v>
@@ -17103,14 +17124,14 @@
       <c r="M11" s="660">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="N11" s="868"/>
+      <c r="N11" s="850"/>
       <c r="O11" s="12">
         <v>0.10559300000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="109">
         <v>52.15</v>
@@ -17145,14 +17166,14 @@
       <c r="M12" s="662">
         <v>2.3699999999999999E-2</v>
       </c>
-      <c r="N12" s="868"/>
+      <c r="N12" s="850"/>
       <c r="O12" s="12">
         <v>0.10466200000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="328">
         <v>51.73</v>
@@ -17187,14 +17208,14 @@
       <c r="M13" s="43">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="N13" s="868"/>
+      <c r="N13" s="850"/>
       <c r="O13" s="12">
         <v>0.103987</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="465">
         <v>54.06</v>
@@ -17229,14 +17250,14 @@
       <c r="M14" s="411">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="N14" s="868"/>
+      <c r="N14" s="850"/>
       <c r="O14" s="12">
         <v>0.10576199999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="624">
         <v>52.08</v>
@@ -17271,14 +17292,14 @@
       <c r="M15" s="671">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="N15" s="868"/>
+      <c r="N15" s="850"/>
       <c r="O15" s="12">
         <v>0.104264</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="672">
         <v>51.49</v>
@@ -17313,14 +17334,14 @@
       <c r="M16" s="680">
         <v>1.55E-2</v>
       </c>
-      <c r="N16" s="868"/>
+      <c r="N16" s="850"/>
       <c r="O16" s="12">
         <v>0.103411</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="47">
         <v>53.68</v>
@@ -17355,14 +17376,14 @@
       <c r="M17" s="682">
         <v>2.18E-2</v>
       </c>
-      <c r="N17" s="868"/>
+      <c r="N17" s="850"/>
       <c r="O17" s="12">
         <v>0.107187</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="40">
         <v>52.64</v>
@@ -17397,14 +17418,14 @@
       <c r="M18" s="587">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="N18" s="868"/>
+      <c r="N18" s="850"/>
       <c r="O18" s="12">
         <v>0.103382</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="221">
         <v>51.99</v>
@@ -17439,14 +17460,14 @@
       <c r="M19" s="685">
         <v>1.49E-2</v>
       </c>
-      <c r="N19" s="868"/>
+      <c r="N19" s="850"/>
       <c r="O19" s="12">
         <v>0.102482</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="550">
         <v>54.32</v>
@@ -17481,14 +17502,14 @@
       <c r="M20" s="687">
         <v>2.81E-2</v>
       </c>
-      <c r="N20" s="868"/>
+      <c r="N20" s="850"/>
       <c r="O20" s="12">
         <v>0.105269</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="34">
         <v>52.35</v>
@@ -17523,14 +17544,14 @@
       <c r="M21" s="690">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="N21" s="868"/>
+      <c r="N21" s="850"/>
       <c r="O21" s="12">
         <v>0.10238</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="326">
         <v>51.53</v>
@@ -17565,14 +17586,14 @@
       <c r="M22" s="685">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N22" s="868"/>
+      <c r="N22" s="850"/>
       <c r="O22" s="12">
         <v>0.101969</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="26">
         <v>54.01</v>
@@ -17607,14 +17628,14 @@
       <c r="M23" s="692">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="N23" s="868"/>
+      <c r="N23" s="850"/>
       <c r="O23" s="12">
         <v>0.105047</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="57">
         <v>52.27</v>
@@ -17649,14 +17670,14 @@
       <c r="M24" s="617">
         <v>2.3900000000000001E-2</v>
       </c>
-      <c r="N24" s="868"/>
+      <c r="N24" s="850"/>
       <c r="O24" s="12">
         <v>0.102162</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="117">
         <v>51.97</v>
@@ -17691,14 +17712,14 @@
       <c r="M25" s="696">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N25" s="868"/>
+      <c r="N25" s="850"/>
       <c r="O25" s="12">
         <v>0.10202700000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="263">
         <v>53.13</v>
@@ -17733,14 +17754,14 @@
       <c r="M26" s="697">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="N26" s="868"/>
+      <c r="N26" s="850"/>
       <c r="O26" s="12">
         <v>0.104842</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="84" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="698">
         <v>51.47</v>
@@ -17775,38 +17796,38 @@
       <c r="M27" s="626">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="N27" s="857"/>
+      <c r="N27" s="832"/>
       <c r="O27" s="191">
         <v>0.10212</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B30" s="853" t="s">
+    <row r="30" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="846" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="847" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="847"/>
+      <c r="E30" s="847"/>
+      <c r="F30" s="847"/>
+      <c r="G30" s="847"/>
+      <c r="H30" s="847"/>
+      <c r="I30" s="847"/>
+      <c r="J30" s="847"/>
+      <c r="K30" s="848"/>
+      <c r="L30" s="846" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="854" t="s">
+      <c r="M30" s="846" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="854"/>
-      <c r="E30" s="854"/>
-      <c r="F30" s="854"/>
-      <c r="G30" s="854"/>
-      <c r="H30" s="854"/>
-      <c r="I30" s="854"/>
-      <c r="J30" s="854"/>
-      <c r="K30" s="855"/>
-      <c r="L30" s="853" t="s">
+      <c r="N30" s="846" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="853" t="s">
-        <v>40</v>
-      </c>
-      <c r="N30" s="853" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="849"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="842"/>
       <c r="C31" s="192">
         <v>1</v>
       </c>
@@ -17834,13 +17855,13 @@
       <c r="K31" s="192">
         <v>9</v>
       </c>
-      <c r="L31" s="849"/>
-      <c r="M31" s="849"/>
-      <c r="N31" s="849"/>
-    </row>
-    <row r="32" spans="2:15" ht="13.5" customHeight="1">
+      <c r="L31" s="842"/>
+      <c r="M31" s="842"/>
+      <c r="N31" s="842"/>
+    </row>
+    <row r="32" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="193" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="37">
         <v>1.6344000000000001</v>
@@ -17875,13 +17896,13 @@
       <c r="M32" s="198">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="N32" s="869">
+      <c r="N32" s="851">
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="193" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" s="76">
         <v>1.6348</v>
@@ -17916,11 +17937,11 @@
       <c r="M33" s="198">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N33" s="848"/>
-    </row>
-    <row r="34" spans="2:14">
+      <c r="N33" s="841"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="193" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="18">
         <v>1.649</v>
@@ -17955,11 +17976,11 @@
       <c r="M34" s="198">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="N34" s="848"/>
-    </row>
-    <row r="35" spans="2:14">
+      <c r="N34" s="841"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="193" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="228">
         <v>1.6428</v>
@@ -17994,11 +18015,11 @@
       <c r="M35" s="198">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="N35" s="848"/>
-    </row>
-    <row r="36" spans="2:14">
+      <c r="N35" s="841"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="193" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="239">
         <v>1.6309</v>
@@ -18033,11 +18054,11 @@
       <c r="M36" s="198">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="N36" s="848"/>
-    </row>
-    <row r="37" spans="2:14">
+      <c r="N36" s="841"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="193" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="260">
         <v>1.6422000000000001</v>
@@ -18072,11 +18093,11 @@
       <c r="M37" s="198">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="N37" s="848"/>
-    </row>
-    <row r="38" spans="2:14">
+      <c r="N37" s="841"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="193" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" s="238">
         <v>1.6301000000000001</v>
@@ -18111,11 +18132,11 @@
       <c r="M38" s="198">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="N38" s="848"/>
-    </row>
-    <row r="39" spans="2:14">
+      <c r="N38" s="841"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="193" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="263">
         <v>1.6382000000000001</v>
@@ -18150,11 +18171,11 @@
       <c r="M39" s="198">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="N39" s="848"/>
-    </row>
-    <row r="40" spans="2:14">
+      <c r="N39" s="841"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="193" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C40" s="572">
         <v>1.6518999999999999</v>
@@ -18189,11 +18210,11 @@
       <c r="M40" s="198">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="N40" s="848"/>
-    </row>
-    <row r="41" spans="2:14">
+      <c r="N40" s="841"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="193" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="400">
         <v>1.6458999999999999</v>
@@ -18228,11 +18249,11 @@
       <c r="M41" s="198">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="N41" s="848"/>
-    </row>
-    <row r="42" spans="2:14">
+      <c r="N41" s="841"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="193" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="369">
         <v>1.6261000000000001</v>
@@ -18267,11 +18288,11 @@
       <c r="M42" s="198">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="N42" s="848"/>
-    </row>
-    <row r="43" spans="2:14">
+      <c r="N42" s="841"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="193" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" s="252">
         <v>1.6415</v>
@@ -18306,11 +18327,11 @@
       <c r="M43" s="198">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="N43" s="848"/>
-    </row>
-    <row r="44" spans="2:14">
+      <c r="N43" s="841"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="193" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="708">
         <v>1.6586000000000001</v>
@@ -18345,11 +18366,11 @@
       <c r="M44" s="198">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="N44" s="848"/>
-    </row>
-    <row r="45" spans="2:14">
+      <c r="N44" s="841"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="193" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C45" s="77">
         <v>1.6365000000000001</v>
@@ -18384,11 +18405,11 @@
       <c r="M45" s="198">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="N45" s="848"/>
-    </row>
-    <row r="46" spans="2:14">
+      <c r="N45" s="841"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="193" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="38">
         <v>1.6363000000000001</v>
@@ -18423,11 +18444,11 @@
       <c r="M46" s="198">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="N46" s="848"/>
-    </row>
-    <row r="47" spans="2:14">
+      <c r="N46" s="841"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="193" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" s="122">
         <v>1.6229</v>
@@ -18462,11 +18483,11 @@
       <c r="M47" s="198">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N47" s="848"/>
-    </row>
-    <row r="48" spans="2:14">
+      <c r="N47" s="841"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="193" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="343">
         <v>1.6173999999999999</v>
@@ -18501,11 +18522,11 @@
       <c r="M48" s="198">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="N48" s="848"/>
-    </row>
-    <row r="49" spans="2:14">
+      <c r="N48" s="841"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="193" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C49" s="34">
         <v>1.6338999999999999</v>
@@ -18540,11 +18561,11 @@
       <c r="M49" s="198">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="N49" s="848"/>
-    </row>
-    <row r="50" spans="2:14">
+      <c r="N49" s="841"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="193" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="34">
         <v>1.6338999999999999</v>
@@ -18579,11 +18600,11 @@
       <c r="M50" s="198">
         <v>1.15E-2</v>
       </c>
-      <c r="N50" s="848"/>
-    </row>
-    <row r="51" spans="2:14">
+      <c r="N50" s="841"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="193" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="642">
         <v>1.6225000000000001</v>
@@ -18618,11 +18639,11 @@
       <c r="M51" s="198">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="N51" s="848"/>
-    </row>
-    <row r="52" spans="2:14">
+      <c r="N51" s="841"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="193" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="82">
         <v>1.6349</v>
@@ -18657,11 +18678,11 @@
       <c r="M52" s="198">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="N52" s="848"/>
-    </row>
-    <row r="53" spans="2:14">
+      <c r="N52" s="841"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="193" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="65">
         <v>1.6404000000000001</v>
@@ -18696,11 +18717,11 @@
       <c r="M53" s="198">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="N53" s="848"/>
-    </row>
-    <row r="54" spans="2:14">
+      <c r="N53" s="841"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="193" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="640">
         <v>1.6506000000000001</v>
@@ -18735,11 +18756,11 @@
       <c r="M54" s="198">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="N54" s="848"/>
-    </row>
-    <row r="55" spans="2:14">
+      <c r="N54" s="841"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="193" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="70">
         <v>1.6366000000000001</v>
@@ -18774,16 +18795,10 @@
       <c r="M55" s="198">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="N55" s="849"/>
+      <c r="N55" s="842"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
     <mergeCell ref="N32:N55"/>
     <mergeCell ref="N4:N27"/>
     <mergeCell ref="B30:B31"/>
@@ -18791,7 +18806,14 @@
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18800,42 +18822,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35E101B-CEB8-4281-BAF8-7977CE917605}">
   <dimension ref="B2:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:N55"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B2" s="856" t="s">
+    <row r="2" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="831" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="833" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="833"/>
+      <c r="E2" s="833"/>
+      <c r="F2" s="833"/>
+      <c r="G2" s="833"/>
+      <c r="H2" s="833"/>
+      <c r="I2" s="833"/>
+      <c r="J2" s="833"/>
+      <c r="K2" s="834"/>
+      <c r="L2" s="835" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="858" t="s">
+      <c r="M2" s="837" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="858"/>
-      <c r="E2" s="858"/>
-      <c r="F2" s="858"/>
-      <c r="G2" s="858"/>
-      <c r="H2" s="858"/>
-      <c r="I2" s="858"/>
-      <c r="J2" s="858"/>
-      <c r="K2" s="859"/>
-      <c r="L2" s="860" t="s">
+      <c r="N2" s="831" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="862" t="s">
+      <c r="O2" s="829" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="856" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="865" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="857"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="832"/>
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -18863,14 +18883,14 @@
       <c r="K3" s="1">
         <v>9</v>
       </c>
-      <c r="L3" s="861"/>
-      <c r="M3" s="863"/>
-      <c r="N3" s="864"/>
-      <c r="O3" s="866"/>
-    </row>
-    <row r="4" spans="2:15" ht="13.5" customHeight="1">
+      <c r="L3" s="836"/>
+      <c r="M3" s="838"/>
+      <c r="N3" s="839"/>
+      <c r="O3" s="830"/>
+    </row>
+    <row r="4" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="712">
         <v>53.39</v>
@@ -18905,16 +18925,16 @@
       <c r="M4" s="720">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="N4" s="867">
+      <c r="N4" s="849">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="O4" s="12">
         <v>0.107178</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="104">
         <v>53.73</v>
@@ -18949,14 +18969,14 @@
       <c r="M5" s="721">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="N5" s="868"/>
+      <c r="N5" s="850"/>
       <c r="O5" s="12">
         <v>0.10986700000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="73">
         <v>52.93</v>
@@ -18991,14 +19011,14 @@
       <c r="M6" s="722">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="N6" s="868"/>
+      <c r="N6" s="850"/>
       <c r="O6" s="12">
         <v>0.106707</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="33">
         <v>52.58</v>
@@ -19033,14 +19053,14 @@
       <c r="M7" s="723">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="N7" s="868"/>
+      <c r="N7" s="850"/>
       <c r="O7" s="12">
         <v>0.105333</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="41">
         <v>53.55</v>
@@ -19075,14 +19095,14 @@
       <c r="M8" s="285">
         <v>2.07E-2</v>
       </c>
-      <c r="N8" s="868"/>
+      <c r="N8" s="850"/>
       <c r="O8" s="12">
         <v>0.106669</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="33">
         <v>52.59</v>
@@ -19117,14 +19137,14 @@
       <c r="M9" s="541">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="N9" s="868"/>
+      <c r="N9" s="850"/>
       <c r="O9" s="12">
         <v>0.105104</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="73">
         <v>52.92</v>
@@ -19159,14 +19179,14 @@
       <c r="M10" s="726">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="N10" s="868"/>
+      <c r="N10" s="850"/>
       <c r="O10" s="12">
         <v>0.104727</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="78">
         <v>53.38</v>
@@ -19201,14 +19221,14 @@
       <c r="M11" s="727">
         <v>2.18E-2</v>
       </c>
-      <c r="N11" s="868"/>
+      <c r="N11" s="850"/>
       <c r="O11" s="12">
         <v>0.106418</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="158">
         <v>52.22</v>
@@ -19243,14 +19263,14 @@
       <c r="M12" s="728">
         <v>2.12E-2</v>
       </c>
-      <c r="N12" s="868"/>
+      <c r="N12" s="850"/>
       <c r="O12" s="12">
         <v>0.104736</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="258">
         <v>52.27</v>
@@ -19285,14 +19305,14 @@
       <c r="M13" s="730">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="N13" s="868"/>
+      <c r="N13" s="850"/>
       <c r="O13" s="12">
         <v>0.104864</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="15">
         <v>54.09</v>
@@ -19327,14 +19347,14 @@
       <c r="M14" s="731">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="N14" s="868"/>
+      <c r="N14" s="850"/>
       <c r="O14" s="12">
         <v>0.10634399999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="88">
         <v>52.59</v>
@@ -19369,14 +19389,14 @@
       <c r="M15" s="741">
         <v>2.06E-2</v>
       </c>
-      <c r="N15" s="868"/>
+      <c r="N15" s="850"/>
       <c r="O15" s="12">
         <v>0.105</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="603">
         <v>52.51</v>
@@ -19411,14 +19431,14 @@
       <c r="M16" s="748">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="N16" s="868"/>
+      <c r="N16" s="850"/>
       <c r="O16" s="12">
         <v>0.103829</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="279">
         <v>54.71</v>
@@ -19453,14 +19473,14 @@
       <c r="M17" s="180">
         <v>1.84E-2</v>
       </c>
-      <c r="N17" s="868"/>
+      <c r="N17" s="850"/>
       <c r="O17" s="12">
         <v>0.108456</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="61">
         <v>52.38</v>
@@ -19495,14 +19515,14 @@
       <c r="M18" s="43">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="N18" s="868"/>
+      <c r="N18" s="850"/>
       <c r="O18" s="12">
         <v>0.104084</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="194">
         <v>52.41</v>
@@ -19537,14 +19557,14 @@
       <c r="M19" s="749">
         <v>1.6E-2</v>
       </c>
-      <c r="N19" s="868"/>
+      <c r="N19" s="850"/>
       <c r="O19" s="12">
         <v>0.103487</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="227">
         <v>54.29</v>
@@ -19579,14 +19599,14 @@
       <c r="M20" s="750">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="N20" s="868"/>
+      <c r="N20" s="850"/>
       <c r="O20" s="12">
         <v>0.106711</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="240">
         <v>52.14</v>
@@ -19621,14 +19641,14 @@
       <c r="M21" s="752">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="N21" s="868"/>
+      <c r="N21" s="850"/>
       <c r="O21" s="12">
         <v>0.103007</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="110">
         <v>51.71</v>
@@ -19663,14 +19683,14 @@
       <c r="M22" s="404">
         <v>1.4E-2</v>
       </c>
-      <c r="N22" s="868"/>
+      <c r="N22" s="850"/>
       <c r="O22" s="12">
         <v>0.102938</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="464">
         <v>55.14</v>
@@ -19705,14 +19725,14 @@
       <c r="M23" s="23">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="N23" s="868"/>
+      <c r="N23" s="850"/>
       <c r="O23" s="12">
         <v>0.106013</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="36">
         <v>53.08</v>
@@ -19747,14 +19767,14 @@
       <c r="M24" s="755">
         <v>2.47E-2</v>
       </c>
-      <c r="N24" s="868"/>
+      <c r="N24" s="850"/>
       <c r="O24" s="12">
         <v>0.10299800000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="153">
         <v>52.37</v>
@@ -19789,14 +19809,14 @@
       <c r="M25" s="749">
         <v>1.6E-2</v>
       </c>
-      <c r="N25" s="868"/>
+      <c r="N25" s="850"/>
       <c r="O25" s="12">
         <v>0.10261099999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="218">
         <v>54.38</v>
@@ -19831,14 +19851,14 @@
       <c r="M26" s="757">
         <v>2.4400000000000002E-2</v>
       </c>
-      <c r="N26" s="868"/>
+      <c r="N26" s="850"/>
       <c r="O26" s="12">
         <v>0.106409</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="84" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="668">
         <v>52.42</v>
@@ -19873,38 +19893,38 @@
       <c r="M27" s="763">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="N27" s="857"/>
+      <c r="N27" s="832"/>
       <c r="O27" s="191">
         <v>0.102296</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B30" s="853" t="s">
+    <row r="30" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="846" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="847" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="847"/>
+      <c r="E30" s="847"/>
+      <c r="F30" s="847"/>
+      <c r="G30" s="847"/>
+      <c r="H30" s="847"/>
+      <c r="I30" s="847"/>
+      <c r="J30" s="847"/>
+      <c r="K30" s="848"/>
+      <c r="L30" s="846" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="854" t="s">
+      <c r="M30" s="846" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="854"/>
-      <c r="E30" s="854"/>
-      <c r="F30" s="854"/>
-      <c r="G30" s="854"/>
-      <c r="H30" s="854"/>
-      <c r="I30" s="854"/>
-      <c r="J30" s="854"/>
-      <c r="K30" s="855"/>
-      <c r="L30" s="853" t="s">
+      <c r="N30" s="846" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="853" t="s">
-        <v>40</v>
-      </c>
-      <c r="N30" s="853" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="849"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="842"/>
       <c r="C31" s="192">
         <v>1</v>
       </c>
@@ -19932,13 +19952,13 @@
       <c r="K31" s="192">
         <v>9</v>
       </c>
-      <c r="L31" s="849"/>
-      <c r="M31" s="849"/>
-      <c r="N31" s="849"/>
-    </row>
-    <row r="32" spans="2:15" ht="13.5" customHeight="1">
+      <c r="L31" s="842"/>
+      <c r="M31" s="842"/>
+      <c r="N31" s="842"/>
+    </row>
+    <row r="32" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="193" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="238">
         <v>1.6141000000000001</v>
@@ -19973,13 +19993,13 @@
       <c r="M32" s="198">
         <v>1.24E-2</v>
       </c>
-      <c r="N32" s="869">
+      <c r="N32" s="851">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="193" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" s="263">
         <v>1.6226</v>
@@ -20014,11 +20034,11 @@
       <c r="M33" s="198">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N33" s="848"/>
-    </row>
-    <row r="34" spans="2:14">
+      <c r="N33" s="841"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="193" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="131">
         <v>1.6160000000000001</v>
@@ -20053,11 +20073,11 @@
       <c r="M34" s="198">
         <v>1.21E-2</v>
       </c>
-      <c r="N34" s="848"/>
-    </row>
-    <row r="35" spans="2:14">
+      <c r="N34" s="841"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="193" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="47">
         <v>1.6255999999999999</v>
@@ -20092,11 +20112,11 @@
       <c r="M35" s="198">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="N35" s="848"/>
-    </row>
-    <row r="36" spans="2:14">
+      <c r="N35" s="841"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="193" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="59">
         <v>1.6201000000000001</v>
@@ -20131,11 +20151,11 @@
       <c r="M36" s="198">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="N36" s="848"/>
-    </row>
-    <row r="37" spans="2:14">
+      <c r="N36" s="841"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="193" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="231">
         <v>1.6273</v>
@@ -20170,11 +20190,11 @@
       <c r="M37" s="198">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="N37" s="848"/>
-    </row>
-    <row r="38" spans="2:14">
+      <c r="N37" s="841"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="193" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" s="117">
         <v>1.6151</v>
@@ -20209,11 +20229,11 @@
       <c r="M38" s="198">
         <v>8.6E-3</v>
       </c>
-      <c r="N38" s="848"/>
-    </row>
-    <row r="39" spans="2:14">
+      <c r="N38" s="841"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="193" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="269">
         <v>1.6220000000000001</v>
@@ -20248,11 +20268,11 @@
       <c r="M39" s="198">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N39" s="848"/>
-    </row>
-    <row r="40" spans="2:14">
+      <c r="N39" s="841"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="193" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C40" s="283">
         <v>1.6308</v>
@@ -20287,11 +20307,11 @@
       <c r="M40" s="198">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="N40" s="848"/>
-    </row>
-    <row r="41" spans="2:14">
+      <c r="N40" s="841"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="193" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="14">
         <v>1.6263000000000001</v>
@@ -20326,11 +20346,11 @@
       <c r="M41" s="198">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="N41" s="848"/>
-    </row>
-    <row r="42" spans="2:14">
+      <c r="N41" s="841"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="193" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="35">
         <v>1.6233</v>
@@ -20365,11 +20385,11 @@
       <c r="M42" s="198">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="N42" s="848"/>
-    </row>
-    <row r="43" spans="2:14">
+      <c r="N42" s="841"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="193" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" s="38">
         <v>1.6208</v>
@@ -20404,11 +20424,11 @@
       <c r="M43" s="198">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="N43" s="848"/>
-    </row>
-    <row r="44" spans="2:14">
+      <c r="N43" s="841"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="193" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="105">
         <v>1.6171</v>
@@ -20443,11 +20463,11 @@
       <c r="M44" s="198">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="N44" s="848"/>
-    </row>
-    <row r="45" spans="2:14">
+      <c r="N44" s="841"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="193" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C45" s="53">
         <v>1.6234</v>
@@ -20482,11 +20502,11 @@
       <c r="M45" s="198">
         <v>1.03E-2</v>
       </c>
-      <c r="N45" s="848"/>
-    </row>
-    <row r="46" spans="2:14">
+      <c r="N45" s="841"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="193" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="269">
         <v>1.6220000000000001</v>
@@ -20521,11 +20541,11 @@
       <c r="M46" s="198">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="N46" s="848"/>
-    </row>
-    <row r="47" spans="2:14">
+      <c r="N46" s="841"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="193" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" s="465">
         <v>1.6274999999999999</v>
@@ -20560,11 +20580,11 @@
       <c r="M47" s="198">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="N47" s="848"/>
-    </row>
-    <row r="48" spans="2:14">
+      <c r="N47" s="841"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="193" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="28">
         <v>1.6236999999999999</v>
@@ -20599,11 +20619,11 @@
       <c r="M48" s="198">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="N48" s="848"/>
-    </row>
-    <row r="49" spans="2:14">
+      <c r="N48" s="841"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="193" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C49" s="775">
         <v>1.6365000000000001</v>
@@ -20638,11 +20658,11 @@
       <c r="M49" s="198">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="N49" s="848"/>
-    </row>
-    <row r="50" spans="2:14">
+      <c r="N49" s="841"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="193" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="570">
         <v>1.6376999999999999</v>
@@ -20677,11 +20697,11 @@
       <c r="M50" s="198">
         <v>1.43E-2</v>
       </c>
-      <c r="N50" s="848"/>
-    </row>
-    <row r="51" spans="2:14">
+      <c r="N50" s="841"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="193" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="156">
         <v>1.6056999999999999</v>
@@ -20716,11 +20736,11 @@
       <c r="M51" s="198">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N51" s="848"/>
-    </row>
-    <row r="52" spans="2:14">
+      <c r="N51" s="841"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="193" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="160">
         <v>1.6057999999999999</v>
@@ -20755,11 +20775,11 @@
       <c r="M52" s="198">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="N52" s="848"/>
-    </row>
-    <row r="53" spans="2:14">
+      <c r="N52" s="841"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="193" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="125">
         <v>1.6111</v>
@@ -20794,11 +20814,11 @@
       <c r="M53" s="198">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="N53" s="848"/>
-    </row>
-    <row r="54" spans="2:14">
+      <c r="N53" s="841"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="193" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="229">
         <v>1.6132</v>
@@ -20833,11 +20853,11 @@
       <c r="M54" s="198">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="N54" s="848"/>
-    </row>
-    <row r="55" spans="2:14">
+      <c r="N54" s="841"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="193" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="251">
         <v>1.6037999999999999</v>
@@ -20872,16 +20892,10 @@
       <c r="M55" s="198">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="N55" s="849"/>
+      <c r="N55" s="842"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
     <mergeCell ref="N32:N55"/>
     <mergeCell ref="N4:N27"/>
     <mergeCell ref="B30:B31"/>
@@ -20889,7 +20903,14 @@
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20898,42 +20919,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F934210A-E492-4787-9005-7979E5F6B68E}">
   <dimension ref="B2:O55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B2" s="856" t="s">
+    <row r="2" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="831" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="833" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="833"/>
+      <c r="E2" s="833"/>
+      <c r="F2" s="833"/>
+      <c r="G2" s="833"/>
+      <c r="H2" s="833"/>
+      <c r="I2" s="833"/>
+      <c r="J2" s="833"/>
+      <c r="K2" s="834"/>
+      <c r="L2" s="835" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="858" t="s">
+      <c r="M2" s="837" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="858"/>
-      <c r="E2" s="858"/>
-      <c r="F2" s="858"/>
-      <c r="G2" s="858"/>
-      <c r="H2" s="858"/>
-      <c r="I2" s="858"/>
-      <c r="J2" s="858"/>
-      <c r="K2" s="859"/>
-      <c r="L2" s="860" t="s">
+      <c r="N2" s="831" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="862" t="s">
+      <c r="O2" s="829" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="856" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="865" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="857"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="832"/>
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -20961,14 +20980,14 @@
       <c r="K3" s="1">
         <v>9</v>
       </c>
-      <c r="L3" s="861"/>
-      <c r="M3" s="863"/>
-      <c r="N3" s="864"/>
-      <c r="O3" s="866"/>
-    </row>
-    <row r="4" spans="2:15" ht="13.5" customHeight="1">
+      <c r="L3" s="836"/>
+      <c r="M3" s="838"/>
+      <c r="N3" s="839"/>
+      <c r="O3" s="830"/>
+    </row>
+    <row r="4" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4">
         <v>52.88</v>
@@ -21003,16 +21022,16 @@
       <c r="M4" s="784">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="N4" s="867">
+      <c r="N4" s="849">
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="O4" s="12">
         <v>0.10642699999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="218">
         <v>53.73</v>
@@ -21047,14 +21066,14 @@
       <c r="M5" s="785">
         <v>2.58E-2</v>
       </c>
-      <c r="N5" s="868"/>
+      <c r="N5" s="850"/>
       <c r="O5" s="12">
         <v>0.10864</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="40">
         <v>52.59</v>
@@ -21089,14 +21108,14 @@
       <c r="M6" s="43">
         <v>1.03E-2</v>
       </c>
-      <c r="N6" s="868"/>
+      <c r="N6" s="850"/>
       <c r="O6" s="12">
         <v>0.10564900000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="210">
         <v>52.55</v>
@@ -21131,14 +21150,14 @@
       <c r="M7" s="508">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="N7" s="868"/>
+      <c r="N7" s="850"/>
       <c r="O7" s="12">
         <v>0.10471999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="31">
         <v>53.86</v>
@@ -21173,14 +21192,14 @@
       <c r="M8" s="620">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="N8" s="868"/>
+      <c r="N8" s="850"/>
       <c r="O8" s="12">
         <v>0.106071</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="239">
         <v>52.03</v>
@@ -21215,14 +21234,14 @@
       <c r="M9" s="726">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="N9" s="868"/>
+      <c r="N9" s="850"/>
       <c r="O9" s="12">
         <v>0.104522</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="73">
         <v>52.66</v>
@@ -21257,14 +21276,14 @@
       <c r="M10" s="786">
         <v>1.46E-2</v>
       </c>
-      <c r="N10" s="868"/>
+      <c r="N10" s="850"/>
       <c r="O10" s="12">
         <v>0.104447</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="47">
         <v>53.34</v>
@@ -21299,14 +21318,14 @@
       <c r="M11" s="787">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="N11" s="868"/>
+      <c r="N11" s="850"/>
       <c r="O11" s="12">
         <v>0.10545599999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="72">
         <v>52.16</v>
@@ -21341,14 +21360,14 @@
       <c r="M12" s="152">
         <v>1.4E-2</v>
       </c>
-      <c r="N12" s="868"/>
+      <c r="N12" s="850"/>
       <c r="O12" s="12">
         <v>0.104327</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="132">
         <v>52.13</v>
@@ -21383,14 +21402,14 @@
       <c r="M13" s="152">
         <v>1.4E-2</v>
       </c>
-      <c r="N13" s="868"/>
+      <c r="N13" s="850"/>
       <c r="O13" s="12">
         <v>0.104327</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="279">
         <v>53.98</v>
@@ -21425,14 +21444,14 @@
       <c r="M14" s="682">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="N14" s="868"/>
+      <c r="N14" s="850"/>
       <c r="O14" s="12">
         <v>0.10555299999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="596">
         <v>52.44</v>
@@ -21467,14 +21486,14 @@
       <c r="M15" s="793">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="N15" s="868"/>
+      <c r="N15" s="850"/>
       <c r="O15" s="12">
         <v>0.10365099999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="648">
         <v>52.44</v>
@@ -21509,14 +21528,14 @@
       <c r="M16" s="800">
         <v>1.35E-2</v>
       </c>
-      <c r="N16" s="868"/>
+      <c r="N16" s="850"/>
       <c r="O16" s="12">
         <v>0.103933</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="216">
         <v>54.57</v>
@@ -21551,14 +21570,14 @@
       <c r="M17" s="802">
         <v>1.95E-2</v>
       </c>
-      <c r="N17" s="868"/>
+      <c r="N17" s="850"/>
       <c r="O17" s="12">
         <v>0.10738200000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="37">
         <v>52.43</v>
@@ -21593,14 +21612,14 @@
       <c r="M18" s="143">
         <v>1.67E-2</v>
       </c>
-      <c r="N18" s="868"/>
+      <c r="N18" s="850"/>
       <c r="O18" s="12">
         <v>0.103644</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="66">
         <v>52.46</v>
@@ -21635,14 +21654,14 @@
       <c r="M19" s="334">
         <v>1.77E-2</v>
       </c>
-      <c r="N19" s="868"/>
+      <c r="N19" s="850"/>
       <c r="O19" s="12">
         <v>0.102993</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="501">
         <v>54.34</v>
@@ -21677,14 +21696,14 @@
       <c r="M20" s="785">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="N20" s="868"/>
+      <c r="N20" s="850"/>
       <c r="O20" s="12">
         <v>0.10578</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="63">
         <v>52.63</v>
@@ -21719,14 +21738,14 @@
       <c r="M21" s="803">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="N21" s="868"/>
+      <c r="N21" s="850"/>
       <c r="O21" s="12">
         <v>0.102922</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="105">
         <v>52.18</v>
@@ -21761,14 +21780,14 @@
       <c r="M22" s="805">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="N22" s="868"/>
+      <c r="N22" s="850"/>
       <c r="O22" s="12">
         <v>0.102531</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="209">
         <v>54.4</v>
@@ -21803,14 +21822,14 @@
       <c r="M23" s="23">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="N23" s="868"/>
+      <c r="N23" s="850"/>
       <c r="O23" s="12">
         <v>0.105582</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="158">
         <v>52.07</v>
@@ -21845,14 +21864,14 @@
       <c r="M24" s="806">
         <v>2.3E-2</v>
       </c>
-      <c r="N24" s="868"/>
+      <c r="N24" s="850"/>
       <c r="O24" s="12">
         <v>0.102344</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="159">
         <v>51.99</v>
@@ -21887,14 +21906,14 @@
       <c r="M25" s="807">
         <v>1.84E-2</v>
       </c>
-      <c r="N25" s="868"/>
+      <c r="N25" s="850"/>
       <c r="O25" s="12">
         <v>0.102564</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="282">
         <v>54.17</v>
@@ -21929,14 +21948,14 @@
       <c r="M26" s="808">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="N26" s="868"/>
+      <c r="N26" s="850"/>
       <c r="O26" s="12">
         <v>0.105902</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="84" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="515">
         <v>52.07</v>
@@ -21971,38 +21990,38 @@
       <c r="M27" s="461">
         <v>2.01E-2</v>
       </c>
-      <c r="N27" s="857"/>
+      <c r="N27" s="832"/>
       <c r="O27" s="191">
         <v>0.102451</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B30" s="853" t="s">
+    <row r="30" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="846" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="847" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="847"/>
+      <c r="E30" s="847"/>
+      <c r="F30" s="847"/>
+      <c r="G30" s="847"/>
+      <c r="H30" s="847"/>
+      <c r="I30" s="847"/>
+      <c r="J30" s="847"/>
+      <c r="K30" s="848"/>
+      <c r="L30" s="846" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="854" t="s">
+      <c r="M30" s="846" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="854"/>
-      <c r="E30" s="854"/>
-      <c r="F30" s="854"/>
-      <c r="G30" s="854"/>
-      <c r="H30" s="854"/>
-      <c r="I30" s="854"/>
-      <c r="J30" s="854"/>
-      <c r="K30" s="855"/>
-      <c r="L30" s="853" t="s">
+      <c r="N30" s="846" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="853" t="s">
-        <v>40</v>
-      </c>
-      <c r="N30" s="853" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="849"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="842"/>
       <c r="C31" s="192">
         <v>1</v>
       </c>
@@ -22030,13 +22049,13 @@
       <c r="K31" s="192">
         <v>9</v>
       </c>
-      <c r="L31" s="849"/>
-      <c r="M31" s="849"/>
-      <c r="N31" s="849"/>
-    </row>
-    <row r="32" spans="2:15" ht="13.5" customHeight="1">
+      <c r="L31" s="842"/>
+      <c r="M31" s="842"/>
+      <c r="N31" s="842"/>
+    </row>
+    <row r="32" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="193" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="36">
         <v>1.6324000000000001</v>
@@ -22071,13 +22090,13 @@
       <c r="M32" s="198">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="N32" s="869">
+      <c r="N32" s="851">
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="193" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" s="326">
         <v>1.6234999999999999</v>
@@ -22112,11 +22131,11 @@
       <c r="M33" s="198">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="N33" s="848"/>
-    </row>
-    <row r="34" spans="2:14">
+      <c r="N33" s="841"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="193" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="252">
         <v>1.6351</v>
@@ -22151,11 +22170,11 @@
       <c r="M34" s="198">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="N34" s="848"/>
-    </row>
-    <row r="35" spans="2:14">
+      <c r="N34" s="841"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="193" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="233">
         <v>1.6394</v>
@@ -22190,11 +22209,11 @@
       <c r="M35" s="198">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="N35" s="848"/>
-    </row>
-    <row r="36" spans="2:14">
+      <c r="N35" s="841"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="193" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="126">
         <v>1.6187</v>
@@ -22229,11 +22248,11 @@
       <c r="M36" s="198">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="N36" s="848"/>
-    </row>
-    <row r="37" spans="2:14">
+      <c r="N36" s="841"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="193" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="552">
         <v>1.6384000000000001</v>
@@ -22268,11 +22287,11 @@
       <c r="M37" s="198">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="N37" s="848"/>
-    </row>
-    <row r="38" spans="2:14">
+      <c r="N37" s="841"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="193" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" s="195">
         <v>1.6271</v>
@@ -22307,11 +22326,11 @@
       <c r="M38" s="198">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="N38" s="848"/>
-    </row>
-    <row r="39" spans="2:14">
+      <c r="N38" s="841"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="193" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="231">
         <v>1.6361000000000001</v>
@@ -22346,11 +22365,11 @@
       <c r="M39" s="198">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="N39" s="848"/>
-    </row>
-    <row r="40" spans="2:14">
+      <c r="N39" s="841"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="193" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C40" s="78">
         <v>1.6333</v>
@@ -22385,11 +22404,11 @@
       <c r="M40" s="198">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="N40" s="848"/>
-    </row>
-    <row r="41" spans="2:14">
+      <c r="N40" s="841"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="193" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="207">
         <v>1.629</v>
@@ -22424,11 +22443,11 @@
       <c r="M41" s="198">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="N41" s="848"/>
-    </row>
-    <row r="42" spans="2:14">
+      <c r="N41" s="841"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="193" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="323">
         <v>1.6251</v>
@@ -22463,11 +22482,11 @@
       <c r="M42" s="198">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N42" s="848"/>
-    </row>
-    <row r="43" spans="2:14">
+      <c r="N42" s="841"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="193" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" s="71">
         <v>1.6264000000000001</v>
@@ -22502,11 +22521,11 @@
       <c r="M43" s="198">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="N43" s="848"/>
-    </row>
-    <row r="44" spans="2:14">
+      <c r="N43" s="841"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="193" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="323">
         <v>1.6251</v>
@@ -22541,11 +22560,11 @@
       <c r="M44" s="198">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="N44" s="848"/>
-    </row>
-    <row r="45" spans="2:14">
+      <c r="N44" s="841"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="193" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C45" s="39">
         <v>1.633</v>
@@ -22580,11 +22599,11 @@
       <c r="M45" s="198">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="N45" s="848"/>
-    </row>
-    <row r="46" spans="2:14">
+      <c r="N45" s="841"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="193" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="41">
         <v>1.6339999999999999</v>
@@ -22619,11 +22638,11 @@
       <c r="M46" s="198">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="N46" s="848"/>
-    </row>
-    <row r="47" spans="2:14">
+      <c r="N46" s="841"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="193" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" s="257">
         <v>1.6194999999999999</v>
@@ -22658,11 +22677,11 @@
       <c r="M47" s="198">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="N47" s="848"/>
-    </row>
-    <row r="48" spans="2:14">
+      <c r="N47" s="841"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="193" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="482">
         <v>1.6266</v>
@@ -22697,11 +22716,11 @@
       <c r="M48" s="198">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N48" s="848"/>
-    </row>
-    <row r="49" spans="2:14">
+      <c r="N48" s="841"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="193" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C49" s="105">
         <v>1.6294</v>
@@ -22736,11 +22755,11 @@
       <c r="M49" s="198">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="N49" s="848"/>
-    </row>
-    <row r="50" spans="2:14">
+      <c r="N49" s="841"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="193" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="289">
         <v>1.6347</v>
@@ -22775,11 +22794,11 @@
       <c r="M50" s="198">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N50" s="848"/>
-    </row>
-    <row r="51" spans="2:14">
+      <c r="N50" s="841"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="193" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="109">
         <v>1.6295999999999999</v>
@@ -22814,11 +22833,11 @@
       <c r="M51" s="198">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="N51" s="848"/>
-    </row>
-    <row r="52" spans="2:14">
+      <c r="N51" s="841"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="193" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="826">
         <v>1.6456</v>
@@ -22853,11 +22872,11 @@
       <c r="M52" s="198">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="N52" s="848"/>
-    </row>
-    <row r="53" spans="2:14">
+      <c r="N52" s="841"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="193" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="78">
         <v>1.6333</v>
@@ -22892,11 +22911,11 @@
       <c r="M53" s="198">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="N53" s="848"/>
-    </row>
-    <row r="54" spans="2:14">
+      <c r="N53" s="841"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="193" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="356">
         <v>1.6252</v>
@@ -22931,11 +22950,11 @@
       <c r="M54" s="198">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="N54" s="848"/>
-    </row>
-    <row r="55" spans="2:14">
+      <c r="N54" s="841"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="193" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="57">
         <v>1.6304000000000001</v>
@@ -22970,16 +22989,10 @@
       <c r="M55" s="198">
         <v>1.17E-2</v>
       </c>
-      <c r="N55" s="849"/>
+      <c r="N55" s="842"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
     <mergeCell ref="N32:N55"/>
     <mergeCell ref="N4:N27"/>
     <mergeCell ref="B30:B31"/>
@@ -22987,12 +23000,34 @@
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001FBBD80FDE9040429E208D8735258485" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="134a387452f84d76821fe542e33ddc2b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="97882b51-44f3-4e3e-b83d-0d5e92aecfe6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f241d9d094437af2589f63e25bca866" ns2:_="">
     <xsd:import namespace="97882b51-44f3-4e3e-b83d-0d5e92aecfe6"/>
@@ -23164,29 +23199,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3A78E30-6DFF-4EB3-9A46-381DF02E2825}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D0ED4CB-77D6-4258-9BF1-26F650F2982E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B3E8A8B-DD1A-4DD9-8D34-6B82583E4DC4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B3E8A8B-DD1A-4DD9-8D34-6B82583E4DC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D0ED4CB-77D6-4258-9BF1-26F650F2982E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3A78E30-6DFF-4EB3-9A46-381DF02E2825}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="97882b51-44f3-4e3e-b83d-0d5e92aecfe6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>